--- a/Data_Gathering/PastDataResults.xlsx
+++ b/Data_Gathering/PastDataResults.xlsx
@@ -384,2887 +384,2887 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>42742</v>
+        <v>43883</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11,21,31,32,40,41</t>
+          <t>04,05,16,37,38,39</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>42743</v>
+        <v>43881</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07,09,10,29,35,42</t>
+          <t>05,08,17,23,37,41</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>380</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>42775</v>
+        <v>43879</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>03,04,28,32,36,41</t>
+          <t>05,06,10,14,18,32</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>354</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>42777</v>
+        <v>43876</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>03,11,18,19,31,42</t>
+          <t>15,18,25,27,28,38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>341</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>42778</v>
+        <v>43874</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>04,21,27,30,33,39</t>
+          <t>08,11,15,27,36,41</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>419</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>42800</v>
+        <v>44137</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20,22,24,28,31,40</t>
+          <t>03,11,15,22,23,40</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>393</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>42802</v>
+        <v>44045</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10,20,22,24,30,42</t>
+          <t>14,20,22,24,35,37</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>367</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>42804</v>
+        <v>43984</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01,07,12,17,28,31</t>
+          <t>05,09,19,25,30,35</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>42832</v>
+        <v>43923</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>05,10,29,32,34,36</t>
+          <t>03,08,20,24,25,31</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>353</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>42836</v>
+        <v>43832</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08,10,19,25,26,42</t>
+          <t>05,09,10,17,18,29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>392</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>42863</v>
+        <v>43860</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12,19,24,35,38,42</t>
+          <t>16,30,31,37,38,40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>379</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>42864</v>
+        <v>43858</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>05,06,12,29,39,42</t>
+          <t>11,14,16,20,24,38</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>366</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>42865</v>
+        <v>43855</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>03,07,09,11,12,21</t>
+          <t>10,20,31,34,38,41</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>340</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>42867</v>
+        <v>43853</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11,14,15,21,23,30</t>
+          <t>02,04,09,22,25,40</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>418</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>42892</v>
+        <v>43851</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01,05,13,25,30,37</t>
+          <t>07,09,11,19,36,37</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>405</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>42893</v>
+        <v>43848</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01,04,05,27,36,41</t>
+          <t>05,10,12,18,35,42</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>415</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>42899</v>
+        <v>43846</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>05,06,08,13,25,36</t>
+          <t>11,13,14,15,20,21</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>414</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>42901</v>
+        <v>43844</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>02,07,18,20,37,40</t>
+          <t>13,20,33,34,39,40</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>413</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>42903</v>
+        <v>44136</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16,18,29,32,33,39</t>
+          <t>05,16,17,21,29,30</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>412</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>42906</v>
+        <v>44075</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>11,12,13,14,24,25</t>
+          <t>11,18,28,30,31,40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>411</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>42908</v>
+        <v>44013</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>06,12,13,16,21,27</t>
+          <t>02,12,14,27,31,35</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>410</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>42910</v>
+        <v>43922</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>02,07,13,21,40,41</t>
+          <t>05,08,09,14,27,39</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>409</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>42913</v>
+        <v>43862</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>06,10,20,30,34,35</t>
+          <t>01,16,17,20,31,42</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>408</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>42915</v>
+        <v>43830</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>04,08,14,21,38,40</t>
+          <t>16,20,22,25,38,40</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>378</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>42925</v>
+        <v>43827</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>26,27,28,30,41,42</t>
+          <t>04,05,23,31,37,38</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>365</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>42926</v>
+        <v>43825</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>02,09,21,23,30,40</t>
+          <t>04,05,17,19,20,25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>352</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>42927</v>
+        <v>43823</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>09,15,30,33,34,36</t>
+          <t>14,15,17,19,31,38</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>339</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>42928</v>
+        <v>43820</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>09,10,21,24,27,37</t>
+          <t>12,18,24,28,32,39</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>402</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>42929</v>
+        <v>43818</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>11,14,17,28,34,36</t>
+          <t>02,06,11,22,26,33</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>401</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>42931</v>
+        <v>43816</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01,12,18,19,28,42</t>
+          <t>02,06,20,30,33,42</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>42934</v>
+        <v>43813</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>04,05,13,27,31,36</t>
+          <t>01,10,19,25,37,42</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>399</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>42936</v>
+        <v>43811</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>02,04,09,10,24,29</t>
+          <t>03,04,10,14,31,37</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>398</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>42938</v>
+        <v>43750</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>03,14,17,21,29,37</t>
+          <t>01,05,10,30,33,35</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>397</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>42941</v>
+        <v>43658</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>06,25,28,31,33,38</t>
+          <t>06,09,17,20,31,34</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>396</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>42943</v>
+        <v>43597</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>03,15,23,25,34,39</t>
+          <t>01,02,12,30,35,40</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>395</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>42945</v>
+        <v>43536</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>02,05,10,13,26,42</t>
+          <t>01,12,17,23,26,34</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>417</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>42953</v>
+        <v>43799</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>03,09,27,35,40,42</t>
+          <t>01,11,13,14,37,40</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>404</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>42954</v>
+        <v>43797</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>04,07,10,33,37,40</t>
+          <t>02,04,10,34,38,40</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>391</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>42955</v>
+        <v>43795</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01,07,19,25,30,31</t>
+          <t>06,07,15,35,38,40</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>388</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>42962</v>
+        <v>43790</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>08,10,15,30,35,38</t>
+          <t>07,15,16,19,21,22</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>387</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>42964</v>
+        <v>43788</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>09,11,13,32,33,37</t>
+          <t>02,03,05,09,40,41</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>386</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>42966</v>
+        <v>43785</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>06,11,16,29,35,37</t>
+          <t>08,09,20,26,31,34</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>385</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>42969</v>
+        <v>43783</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>02,17,23,29,30,42</t>
+          <t>05,14,18,25,30,34</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>384</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>42971</v>
+        <v>43810</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>13,25,32,33,34,36</t>
+          <t>07,10,16,17,24,27</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>383</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>42973</v>
+        <v>43719</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>22,24,36,37,38,41</t>
+          <t>10,11,14,15,26,27</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>42976</v>
+        <v>43657</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01,05,21,22,28,41</t>
+          <t>05,13,24,33,36,42</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>381</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>42978</v>
+        <v>43596</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>02,04,14,17,25,27</t>
+          <t>18,23,28,32,35,38</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>377</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>42987</v>
+        <v>43507</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>10,11,21,29,37,41</t>
+          <t>04,08,29,34,36,38</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>351</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>42989</v>
+        <v>43769</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>06,07,12,17,27,37</t>
+          <t>05,06,12,14,39,42</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>338</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>42990</v>
+        <v>43767</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>04,11,12,25,27,30</t>
+          <t>05,25,26,28,38,42</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>375</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>42992</v>
+        <v>43764</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>11,12,16,20,31,38</t>
+          <t>16,18,23,34,39,42</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>374</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>42994</v>
+        <v>43762</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01,05,22,27,34,38</t>
+          <t>11,14,15,31,38,42</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>373</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>42997</v>
+        <v>43760</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>06,24,25,27,35,42</t>
+          <t>05,07,16,23,31,41</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>372</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>42999</v>
+        <v>43757</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>04,05,07,16,23,39</t>
+          <t>03,10,25,26,38,42</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>371</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>43001</v>
+        <v>43755</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>11,13,19,21,22,31</t>
+          <t>07,10,13,17,26,40</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>370</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>43004</v>
+        <v>43753</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>06,07,19,23,24,41</t>
+          <t>10,21,23,27,38,39</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>369</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>43006</v>
+        <v>43809</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>02,08,18,20,25,30</t>
+          <t>07,09,14,15,19,28</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>368</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>43008</v>
+        <v>43748</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>08,09,12,27,36,39</t>
+          <t>09,10,13,18,27,42</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>416</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>43014</v>
+        <v>43687</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>02,06,13,19,23,42</t>
+          <t>18,20,24,26,30,34</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>390</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>43016</v>
+        <v>43595</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>08,12,18,28,29,40</t>
+          <t>04,17,26,30,32,37</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>364</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>43018</v>
+        <v>43534</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>05,07,08,19,27,36</t>
+          <t>06,16,27,31,33,35</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>362</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>43022</v>
+        <v>43475</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01,04,11,13,19,36</t>
+          <t>11,21,22,23,27,36</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>361</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>43025</v>
+        <v>43736</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>07,09,16,20,24,28</t>
+          <t>07,24,25,26,27,37</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>360</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>43027</v>
+        <v>43734</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>11,15,16,28,32,38</t>
+          <t>04,06,17,19,21,36</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>359</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>43029</v>
+        <v>43732</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>03,07,19,26,31,34</t>
+          <t>06,16,25,33,34,35</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>358</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>43032</v>
+        <v>43729</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01,07,12,23,28,30</t>
+          <t>03,06,26,31,32,42</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>357</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>43034</v>
+        <v>43727</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>11,13,16,30,36,37</t>
+          <t>07,21,23,33,34,39</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>356</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>43036</v>
+        <v>43725</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>02,11,15,20,22,31</t>
+          <t>03,04,05,18,37,42</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>355</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>43039</v>
+        <v>43722</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>08,14,15,20,25,42</t>
+          <t>03,26,33,34,38,42</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>403</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>43046</v>
+        <v>43808</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01,07,08,18,23,31</t>
+          <t>03,17,25,30,31,37</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>43050</v>
+        <v>43747</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>03,06,09,23,25,30</t>
+          <t>06,07,09,23,24,36</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>349</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>43053</v>
+        <v>43655</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>04,10,21,23,27,28</t>
+          <t>10,17,28,31,34,40</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>348</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>43055</v>
+        <v>43594</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>08,17,28,30,38,42</t>
+          <t>15,16,19,20,39,40</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>347</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>43057</v>
+        <v>43533</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>02,12,15,20,37,38</t>
+          <t>04,06,09,18,24,32</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>346</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>43060</v>
+        <v>43708</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>07,24,26,31,32,38</t>
+          <t>21,22,33,35,36,41</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>345</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>43062</v>
+        <v>43706</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01,16,24,28,34,40</t>
+          <t>05,07,08,11,40,42</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>344</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>43064</v>
+        <v>43704</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01,07,11,22,29,35</t>
+          <t>03,06,18,19,24,41</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>43067</v>
+        <v>43701</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01,07,16,17,28,39</t>
+          <t>02,10,13,14,17,36</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>43069</v>
+        <v>43699</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>03,09,26,27,31,33</t>
+          <t>19,21,26,28,29,35</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>43077</v>
+        <v>43697</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>04,14,17,18,30,33</t>
+          <t>07,08,15,16,19,23</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>376</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>43078</v>
+        <v>43694</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>01,12,19,24,26,38</t>
+          <t>10,13,22,30,38,40</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>43079</v>
+        <v>43692</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>06,16,21,33,37,39</t>
+          <t>06,16,21,27,33,37</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>337</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>43081</v>
+        <v>43690</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>15,17,18,20,24,40</t>
+          <t>03,12,13,25,26,39</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>336</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>43083</v>
+        <v>43746</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>01,05,14,16,23,28</t>
+          <t>18,21,23,29,34,39</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>335</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>43085</v>
+        <v>43685</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>03,08,13,19,22,26</t>
+          <t>13,14,18,26,31,37</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>334</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>43088</v>
+        <v>43624</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>02,04,17,18,28,34</t>
+          <t>03,07,23,27,38,41</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>333</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>43090</v>
+        <v>43532</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>03,19,26,27,36,39</t>
+          <t>14,16,19,20,24,26</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>332</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>43092</v>
+        <v>43473</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>16,18,29,31,39,41</t>
+          <t>01,02,14,18,31,39</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>331</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>43095</v>
+        <v>43676</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>02,14,33,34,39,41</t>
+          <t>09,11,22,30,35,41</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>330</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>43097</v>
+        <v>43673</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>06,10,16,17,30,38</t>
+          <t>05,09,16,17,31,32</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>329</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>43099</v>
+        <v>43671</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>05,10,11,28,38,41</t>
+          <t>03,10,13,22,27,32</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>315</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>43102</v>
+        <v>43669</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>06,13,14,18,30,34</t>
+          <t>01,04,07,22,30,32</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>303</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>43103</v>
+        <v>43666</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>07,14,25,34,40,42</t>
+          <t>01,05,08,23,24,38</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>279</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>43105</v>
+        <v>43664</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>12,14,17,28,31,36</t>
+          <t>14,16,19,25,29,38</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>43109</v>
+        <v>43662</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>03,06,10,13,14,36</t>
+          <t>18,19,25,36,38,39</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>43111</v>
+        <v>43659</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>10,12,16,26,30,39</t>
+          <t>02,07,08,15,28,34</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>43112</v>
+        <v>43776</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>01,11,15,23,24,26</t>
+          <t>05,07,10,24,25,34</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>323</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>43113</v>
+        <v>43715</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>02,08,12,25,31,32</t>
+          <t>01,03,04,12,22,38</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>322</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>43116</v>
+        <v>43623</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>04,07,08,12,32,38</t>
+          <t>10,11,12,17,29,35</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>321</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>43118</v>
+        <v>43562</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>01,05,17,35,37,40</t>
+          <t>01,05,19,22,25,38</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>43120</v>
+        <v>43503</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>06,16,25,29,30,38</t>
+          <t>08,16,18,28,31,37</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>43123</v>
+        <v>43645</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>05,11,24,31,33,42</t>
+          <t>07,10,13,18,26,28</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>318</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>43125</v>
+        <v>43643</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>02,05,10,16,24,26</t>
+          <t>03,16,19,20,28,31</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>317</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>43127</v>
+        <v>43641</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>04,06,07,12,24,30</t>
+          <t>17,20,21,26,28,40</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>316</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>43130</v>
+        <v>43638</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>02,06,11,12,20,35</t>
+          <t>01,09,21,23,27,39</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>328</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>43132</v>
+        <v>43636</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>04,14,16,17,19,29</t>
+          <t>06,08,25,29,36,42</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>265</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>43137</v>
+        <v>43634</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>17,23,24,25,29,35</t>
+          <t>01,02,04,09,20,42</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>43139</v>
+        <v>43631</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>08,14,16,26,36,39</t>
+          <t>03,25,31,37,40,42</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>43141</v>
+        <v>43629</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>04,19,21,22,32,34</t>
+          <t>01,02,12,17,19,32</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>310</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>43144</v>
+        <v>43775</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>07,19,21,22,31,35</t>
+          <t>07,08,19,27,35,36</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>309</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>43146</v>
+        <v>43683</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>01,21,22,24,28,39</t>
+          <t>05,07,08,11,25,40</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>308</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>43148</v>
+        <v>43622</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>05,19,22,33,40,41</t>
+          <t>12,17,20,34,36,37</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>43151</v>
+        <v>43561</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>02,21,25,34,35,40</t>
+          <t>04,09,14,21,37,41</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>306</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>43153</v>
+        <v>43471</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>18,25,27,30,35,41</t>
+          <t>06,09,19,25,32,40</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>305</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>43155</v>
+        <v>43615</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>09,12,17,25,32,34</t>
+          <t>04,09,16,26,30,32</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>304</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>43158</v>
+        <v>43613</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>10,12,19,26,28,36</t>
+          <t>06,08,15,18,30,32</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>314</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>43161</v>
+        <v>43610</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>03,14,19,21,22,29</t>
+          <t>02,04,07,09,19,34</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>302</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>43162</v>
+        <v>43608</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>08,19,24,30,35,39</t>
+          <t>09,13,21,28,33,37</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>291</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>43163</v>
+        <v>43606</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>07,19,27,29,36,38</t>
+          <t>01,04,13,19,25,34</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>278</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>43164</v>
+        <v>43603</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>01,12,22,23,25,26</t>
+          <t>06,23,24,34,35,37</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>43166</v>
+        <v>43601</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>13,19,21,32,41,42</t>
+          <t>08,09,18,22,30,38</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>43170</v>
+        <v>43599</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>07,08,19,25,29,41</t>
+          <t>05,06,08,09,22,32</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>298</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>43172</v>
+        <v>43774</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>02,03,28,32,36,41</t>
+          <t>07,18,21,23,37,38</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>297</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>43174</v>
+        <v>43713</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>02,09,17,27,37,42</t>
+          <t>07,08,17,28,35,42</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>296</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>43176</v>
+        <v>43651</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>08,09,12,23,24,31</t>
+          <t>02,06,17,27,30,41</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>295</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>43179</v>
+        <v>43560</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>05,11,26,30,34,38</t>
+          <t>05,09,14,16,22,40</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>294</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>43181</v>
+        <v>43501</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>04,06,15,20,39,42</t>
+          <t>13,18,20,23,28,34</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>43183</v>
+        <v>43585</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>04,08,17,21,31,32</t>
+          <t>17,18,19,25,26,33</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>292</v>
+        <v>128</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>43186</v>
+        <v>43582</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>01,05,08,22,34,38</t>
+          <t>08,12,20,21,31,38</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>327</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>43191</v>
+        <v>43580</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>05,11,16,19,26,30</t>
+          <t>05,09,24,27,36,38</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>238</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>43198</v>
+        <v>43578</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>01,05,11,22,28,40</t>
+          <t>16,18,20,22,31,37</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>43199</v>
+        <v>43571</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>02,15,24,30,36,42</t>
+          <t>02,09,23,27,34,41</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>43200</v>
+        <v>43568</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>02,26,27,28,29,35</t>
+          <t>07,12,16,26,35,41</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>43202</v>
+        <v>43773</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>08,15,17,23,26,32</t>
+          <t>09,17,18,20,27,39</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>286</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>43204</v>
+        <v>43712</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>03,10,18,29,35,41</t>
+          <t>03,04,16,31,35,38</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>285</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>43207</v>
+        <v>43620</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>04,06,30,39,41,42</t>
+          <t>03,09,12,15,18,42</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>284</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>43209</v>
+        <v>43559</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>11,14,16,23,29,31</t>
+          <t>03,16,19,25,32,37</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>43211</v>
+        <v>43500</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>04,11,12,14,33,39</t>
+          <t>05,08,20,34,36,37</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>282</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>43214</v>
+        <v>43554</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>03,08,12,23,25,41</t>
+          <t>02,06,13,15,21,35</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>281</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>43216</v>
+        <v>43552</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>04,13,22,23,32,41</t>
+          <t>13,15,20,35,36,38</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>43218</v>
+        <v>43550</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>02,03,22,35,37,42</t>
+          <t>26,31,38,40,41,42</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>290</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>43224</v>
+        <v>43547</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>03,08,20,22,31,40</t>
+          <t>01,09,10,16,19,35</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>43225</v>
+        <v>43545</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>01,05,12,15,24,39</t>
+          <t>18,23,25,27,39,40</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>264</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>43226</v>
+        <v>43543</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>01,17,24,26,30,41</t>
+          <t>13,19,29,33,36,37</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>251</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>43227</v>
+        <v>43540</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>04,15,27,29,30,34</t>
+          <t>06,07,22,27,32,41</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>273</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>43235</v>
+        <v>43538</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>03,10,13,38,40,42</t>
+          <t>05,14,25,26,27,42</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>272</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>43237</v>
+        <v>43802</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>05,06,14,18,30,33</t>
+          <t>19,20,29,31,39,40</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>271</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>43239</v>
+        <v>43711</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>04,08,16,18,29,38</t>
+          <t>07,10,15,23,36,41</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>43242</v>
+        <v>43649</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>08,11,26,29,30,33</t>
+          <t>14,24,29,33,34,35</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>269</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>43244</v>
+        <v>43588</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>02,15,27,29,30,37</t>
+          <t>01,11,25,26,35,42</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>268</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>43246</v>
+        <v>43499</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>13,16,21,23,34,38</t>
+          <t>14,20,22,27,32,37</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>43249</v>
+        <v>43524</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>01,13,14,28,33,40</t>
+          <t>01,11,13,19,21,31</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>266</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>43251</v>
+        <v>43522</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>03,15,24,30,31,36</t>
+          <t>10,16,17,22,26,33</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>326</v>
+        <v>153</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>43252</v>
+        <v>43519</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>11,13,15,24,28,40</t>
+          <t>21,22,23,31,33,40</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>313</v>
+        <v>154</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>43253</v>
+        <v>43517</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>01,04,09,21,29,36</t>
+          <t>11,13,14,24,33,41</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>43254</v>
+        <v>43515</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>04,05,23,30,37,39</t>
+          <t>01,03,06,08,15,24</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>43260</v>
+        <v>43512</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>01,04,06,13,15,37</t>
+          <t>03,16,23,33,39,42</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>43261</v>
+        <v>43510</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>01,11,17,21,29,31</t>
+          <t>01,14,15,38,39,41</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>43262</v>
+        <v>43801</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>02,08,10,19,22,31</t>
+          <t>04,05,06,36,37,40</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>43263</v>
+        <v>43710</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>05,16,20,24,34,41</t>
+          <t>03,05,12,15,20,21</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>43265</v>
+        <v>43648</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>02,03,10,21,24,36</t>
+          <t>07,14,18,23,27,40</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>43267</v>
+        <v>43587</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>02,08,23,29,38,41</t>
+          <t>11,15,24,28,31,36</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>258</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2" t="n">
-        <v>43270</v>
+        <v>43498</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>11,24,30,32,34,39</t>
+          <t>04,05,19,30,31,36</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>257</v>
+        <v>163</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>43272</v>
+        <v>43496</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>01,08,16,23,30,39</t>
+          <t>03,06,09,13,28,36</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>256</v>
+        <v>164</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>43274</v>
+        <v>43494</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>08,20,27,32,40,42</t>
+          <t>06,08,14,20,27,37</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>255</v>
+        <v>165</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>43277</v>
+        <v>43491</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>07,15,19,26,27,39</t>
+          <t>01,12,35,36,41,42</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>254</v>
+        <v>166</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>43279</v>
+        <v>43489</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>01,16,23,30,34,35</t>
+          <t>01,04,11,12,19,29</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>43281</v>
+        <v>43487</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>06,20,27,38,39,42</t>
+          <t>03,10,13,15,26,36</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>289</v>
+        <v>168</v>
       </c>
       <c r="B170" s="2" t="n">
-        <v>43285</v>
+        <v>43484</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>11,16,18,26,30,36</t>
+          <t>04,07,13,19,22,42</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>43287</v>
+        <v>43482</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>11,27,29,33,35,36</t>
+          <t>04,19,23,29,40,42</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>43288</v>
+        <v>43480</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>02,07,11,33,36,39</t>
+          <t>04,08,19,20,24,31</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>43289</v>
+        <v>43800</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>01,13,19,22,24,32</t>
+          <t>23,25,29,31,32,42</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>43295</v>
+        <v>43739</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>08,12,26,31,33,35</t>
+          <t>04,12,14,28,30,41</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>43298</v>
+        <v>43678</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>12,28,30,31,34,37</t>
+          <t>12,16,17,22,27,32</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="B176" s="2" t="n">
-        <v>43300</v>
+        <v>43586</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>09,13,30,36,39,41</t>
+          <t>01,08,12,19,23,42</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>43302</v>
+        <v>43525</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>06,17,29,31,33,39</t>
+          <t>04,05,16,22,35,39</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>243</v>
+        <v>176</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>43305</v>
+        <v>43463</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>01,04,07,14,32,34</t>
+          <t>04,12,15,19,21,36</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>43307</v>
+        <v>43461</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>02,08,12,22,33,35</t>
+          <t>02,09,13,20,27,36</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>43309</v>
+        <v>43456</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>09,13,28,33,37,42</t>
+          <t>07,08,09,22,26,35</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>43312</v>
+        <v>43454</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>02,05,23,32,38,40</t>
+          <t>26,27,31,32,34,41</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>312</v>
+        <v>180</v>
       </c>
       <c r="B182" s="2" t="n">
-        <v>43314</v>
+        <v>43452</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>07,08,11,19,30,32</t>
+          <t>04,29,32,33,40,41</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>300</v>
+        <v>181</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>43315</v>
+        <v>43449</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>14,24,25,27,36,38</t>
+          <t>10,11,15,18,23,41</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>43317</v>
+        <v>43447</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>04,07,17,23,26,38</t>
+          <t>08,11,14,19,36,38</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>43321</v>
+        <v>43416</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>10,13,21,23,26,35</t>
+          <t>02,03,09,13,22,27</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B186" s="2" t="n">
-        <v>43323</v>
+        <v>43324</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>10,14,18,26,27,37</t>
+          <t>07,08,13,15,29,40</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>43324</v>
+        <v>43263</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>07,08,13,15,29,40</t>
+          <t>05,16,20,24,34,41</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>43326</v>
+        <v>43202</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>08,26,30,32,36,39</t>
+          <t>08,15,17,23,26,32</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>43328</v>
+        <v>43112</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>10,15,18,23,30,36</t>
+          <t>01,11,15,23,24,26</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>43330</v>
+        <v>43433</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>01,06,14,25,34,38</t>
+          <t>04,05,13,19,38,41</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>43333</v>
+        <v>43431</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>08,09,16,20,28,38</t>
+          <t>01,06,10,20,26,39</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>43335</v>
+        <v>43428</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>01,13,15,16,22,36</t>
+          <t>17,19,25,28,29,32</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>43337</v>
+        <v>43426</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>22,23,26,28,30,35</t>
+          <t>01,16,20,34,40,41</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>43340</v>
+        <v>43424</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>04,07,13,18,22,24</t>
+          <t>16,20,23,28,29,30</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>43342</v>
+        <v>43421</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>09,14,16,29,34,38</t>
+          <t>05,24,27,29,32,41</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>325</v>
+        <v>194</v>
       </c>
       <c r="B196" s="2" t="n">
-        <v>43344</v>
+        <v>43419</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>07,11,27,28,34,42</t>
+          <t>10,18,25,32,33,38</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>43349</v>
+        <v>43417</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>12,21,22,30,37,40</t>
+          <t>03,09,18,25,38,39</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>43351</v>
+        <v>43384</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>02,16,18,29,35,41</t>
+          <t>02,12,22,28,32,42</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>43353</v>
+        <v>43323</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>11,12,18,29,32,33</t>
+          <t>10,14,18,26,27,37</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>43356</v>
+        <v>43262</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>03,05,09,14,30,35</t>
+          <t>02,08,10,19,22,31</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>43358</v>
+        <v>43170</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>17,24,37,38,39,42</t>
+          <t>07,08,19,25,29,41</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B202" s="2" t="n">
-        <v>43361</v>
+        <v>43111</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>05,07,11,16,35,41</t>
+          <t>10,12,16,26,30,39</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>43363</v>
+        <v>43403</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>07,09,15,16,24,32</t>
+          <t>01,06,08,14,19,31</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B204" s="2" t="n">
-        <v>43365</v>
+        <v>43400</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>01,11,22,28,33,34</t>
+          <t>01,03,05,15,21,41</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>43368</v>
+        <v>43398</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>08,09,14,19,22,42</t>
+          <t>03,05,30,31,35,41</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>43370</v>
+        <v>43396</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>10,17,18,20,25,42</t>
+          <t>03,19,20,27,29,31</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B207" s="2" t="n">
-        <v>43372</v>
+        <v>43393</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>02,03,09,12,24,37</t>
+          <t>02,04,14,32,37,39</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>311</v>
+        <v>206</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>43375</v>
+        <v>43391</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>06,08,18,23,30,41</t>
+          <t>01,08,16,17,18,39</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>299</v>
+        <v>207</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>43376</v>
+        <v>43389</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>03,26,38,39,41,42</t>
+          <t>04,10,14,25,29,32</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>288</v>
+        <v>208</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>43377</v>
+        <v>43386</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>02,11,25,31,34,39</t>
+          <t>02,06,10,32,34,40</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>43378</v>
+        <v>43414</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>03,09,10,18,37,41</t>
+          <t>07,11,14,20,22,33</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>43380</v>
+        <v>43353</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>16,24,27,31,32,40</t>
+          <t>11,12,18,29,32,33</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>43384</v>
+        <v>43261</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>02,12,22,28,32,42</t>
+          <t>01,11,17,21,29,31</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B214" s="2" t="n">
-        <v>43386</v>
+        <v>43200</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>02,06,10,32,34,40</t>
+          <t>02,26,27,28,29,35</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>43389</v>
+        <v>43141</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>04,10,14,25,29,32</t>
+          <t>04,19,21,22,32,34</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>43391</v>
+        <v>43372</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>01,08,16,17,18,39</t>
+          <t>02,03,09,12,24,37</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>43393</v>
+        <v>43370</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>02,04,14,32,37,39</t>
+          <t>10,17,18,20,25,42</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>43396</v>
+        <v>43368</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>03,19,20,27,29,31</t>
+          <t>08,09,14,19,22,42</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>43398</v>
+        <v>43365</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>03,05,30,31,35,41</t>
+          <t>01,11,22,28,33,34</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>43400</v>
+        <v>43363</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>01,03,05,15,21,41</t>
+          <t>07,09,15,16,24,32</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>43403</v>
+        <v>43361</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>01,06,08,14,19,31</t>
+          <t>05,07,11,16,35,41</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>324</v>
+        <v>220</v>
       </c>
       <c r="B222" s="2" t="n">
-        <v>43405</v>
+        <v>43358</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>01,03,11,24,38,41</t>
+          <t>17,24,37,38,39,42</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>43412</v>
+        <v>43356</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>07,20,27,29,37,39</t>
+          <t>03,05,09,14,30,35</t>
         </is>
       </c>
     </row>
@@ -3283,2562 +3283,2562 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>43414</v>
+        <v>43321</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>07,11,14,20,22,33</t>
+          <t>10,13,21,23,26,35</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="B226" s="2" t="n">
-        <v>43416</v>
+        <v>43260</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>02,03,09,13,22,27</t>
+          <t>01,04,06,13,15,37</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>43417</v>
+        <v>43199</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>03,09,18,25,38,39</t>
+          <t>02,15,24,30,36,42</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>43419</v>
+        <v>43109</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>10,18,25,32,33,38</t>
+          <t>03,06,10,13,14,36</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>43421</v>
+        <v>43342</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>05,24,27,29,32,41</t>
+          <t>09,14,16,29,34,38</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>43424</v>
+        <v>43340</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>16,20,23,28,29,30</t>
+          <t>04,07,13,18,22,24</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>43426</v>
+        <v>43337</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>01,16,20,34,40,41</t>
+          <t>22,23,26,28,30,35</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>43428</v>
+        <v>43335</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>17,19,25,28,29,32</t>
+          <t>01,13,15,16,22,36</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>43431</v>
+        <v>43333</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>01,06,10,20,26,39</t>
+          <t>08,09,16,20,28,38</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>43433</v>
+        <v>43330</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>04,05,13,19,38,41</t>
+          <t>01,06,14,25,34,38</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="B235" s="2" t="n">
-        <v>43438</v>
+        <v>43328</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>09,12,27,29,32,33</t>
+          <t>10,15,18,23,30,36</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="B236" s="2" t="n">
-        <v>43439</v>
+        <v>43326</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>15,16,24,25,39,40</t>
+          <t>08,26,30,32,36,39</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B237" s="2" t="n">
-        <v>43440</v>
+        <v>43412</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>05,14,20,30,35,36</t>
+          <t>07,20,27,29,37,39</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B238" s="2" t="n">
-        <v>43441</v>
+        <v>43351</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>12,13,22,30,35,39</t>
+          <t>02,16,18,29,35,41</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="B239" s="2" t="n">
-        <v>43447</v>
+        <v>43289</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>08,11,14,19,36,38</t>
+          <t>01,13,19,22,24,32</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>43449</v>
+        <v>43198</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>10,11,15,18,23,41</t>
+          <t>01,05,11,22,28,40</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>43452</v>
+        <v>43139</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>04,29,32,33,40,41</t>
+          <t>08,14,16,26,36,39</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="B242" s="2" t="n">
-        <v>43454</v>
+        <v>43312</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>26,27,31,32,34,41</t>
+          <t>02,05,23,32,38,40</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>178</v>
+        <v>241</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>43456</v>
+        <v>43309</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>07,08,09,22,26,35</t>
+          <t>09,13,28,33,37,42</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c r="B244" s="2" t="n">
-        <v>43461</v>
+        <v>43307</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>02,09,13,20,27,36</t>
+          <t>02,08,12,22,33,35</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="B245" s="2" t="n">
-        <v>43463</v>
+        <v>43305</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>04,12,15,19,21,36</t>
+          <t>01,04,07,14,32,34</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>43471</v>
+        <v>43302</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>06,09,19,25,32,40</t>
+          <t>06,17,29,31,33,39</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>87</v>
+        <v>245</v>
       </c>
       <c r="B247" s="2" t="n">
-        <v>43473</v>
+        <v>43300</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>01,02,14,18,31,39</t>
+          <t>09,13,30,36,39,41</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>61</v>
+        <v>246</v>
       </c>
       <c r="B248" s="2" t="n">
-        <v>43475</v>
+        <v>43298</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>11,21,22,23,27,36</t>
+          <t>12,28,30,31,34,37</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="B249" s="2" t="n">
-        <v>43480</v>
+        <v>43295</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>04,08,19,20,24,31</t>
+          <t>08,12,26,31,33,35</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>43482</v>
+        <v>43441</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>04,19,23,29,40,42</t>
+          <t>12,13,22,30,35,39</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>43484</v>
+        <v>43380</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>04,07,13,19,22,42</t>
+          <t>16,24,27,31,32,40</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="B252" s="2" t="n">
-        <v>43487</v>
+        <v>43288</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>03,10,13,15,26,36</t>
+          <t>02,07,11,33,36,39</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>43489</v>
+        <v>43227</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>01,04,11,12,19,29</t>
+          <t>04,15,27,29,30,34</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="B254" s="2" t="n">
-        <v>43491</v>
+        <v>43166</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>01,12,35,36,41,42</t>
+          <t>13,19,21,32,41,42</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>43494</v>
+        <v>43281</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>06,08,14,20,27,37</t>
+          <t>06,20,27,38,39,42</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>163</v>
+        <v>254</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>43496</v>
+        <v>43279</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>03,06,09,13,28,36</t>
+          <t>01,16,23,30,34,35</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>162</v>
+        <v>255</v>
       </c>
       <c r="B257" s="2" t="n">
-        <v>43498</v>
+        <v>43277</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>04,05,19,30,31,36</t>
+          <t>07,15,19,26,27,39</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="B258" s="2" t="n">
-        <v>43499</v>
+        <v>43274</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>14,20,22,27,32,37</t>
+          <t>08,20,27,32,40,42</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="B259" s="2" t="n">
-        <v>43500</v>
+        <v>43272</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>05,08,20,34,36,37</t>
+          <t>01,08,16,23,30,39</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>126</v>
+        <v>258</v>
       </c>
       <c r="B260" s="2" t="n">
-        <v>43501</v>
+        <v>43270</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>13,18,20,23,28,34</t>
+          <t>11,24,30,32,34,39</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>100</v>
+        <v>259</v>
       </c>
       <c r="B261" s="2" t="n">
-        <v>43503</v>
+        <v>43267</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>08,16,18,28,31,37</t>
+          <t>02,08,23,29,38,41</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="B262" s="2" t="n">
-        <v>43507</v>
+        <v>43265</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>04,08,29,34,36,38</t>
+          <t>02,03,10,21,24,36</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>43510</v>
+        <v>43440</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>01,14,15,38,39,41</t>
+          <t>05,14,20,30,35,36</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>156</v>
+        <v>262</v>
       </c>
       <c r="B264" s="2" t="n">
-        <v>43512</v>
+        <v>43349</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>03,16,23,33,39,42</t>
+          <t>12,21,22,30,37,40</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>155</v>
+        <v>263</v>
       </c>
       <c r="B265" s="2" t="n">
-        <v>43515</v>
+        <v>43287</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>01,03,06,08,15,24</t>
+          <t>11,27,29,33,35,36</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>154</v>
+        <v>264</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>43517</v>
+        <v>43226</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>11,13,14,24,33,41</t>
+          <t>01,17,24,26,30,41</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>153</v>
+        <v>265</v>
       </c>
       <c r="B267" s="2" t="n">
-        <v>43519</v>
+        <v>43137</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>21,22,23,31,33,40</t>
+          <t>17,23,24,25,29,35</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>43522</v>
+        <v>43251</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>10,16,17,22,26,33</t>
+          <t>03,15,24,30,31,36</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>43524</v>
+        <v>43249</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>01,11,13,19,21,31</t>
+          <t>01,13,14,28,33,40</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>43525</v>
+        <v>43246</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>04,05,16,22,35,39</t>
+          <t>13,16,21,23,34,38</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>86</v>
+        <v>269</v>
       </c>
       <c r="B271" s="2" t="n">
-        <v>43532</v>
+        <v>43244</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>14,16,19,20,24,26</t>
+          <t>02,15,27,29,30,37</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>73</v>
+        <v>270</v>
       </c>
       <c r="B272" s="2" t="n">
-        <v>43533</v>
+        <v>43242</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>04,06,09,18,24,32</t>
+          <t>08,11,26,29,30,33</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>60</v>
+        <v>271</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>43534</v>
+        <v>43239</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>06,16,27,31,33,35</t>
+          <t>04,08,16,18,29,38</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="B274" s="2" t="n">
-        <v>43536</v>
+        <v>43237</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>01,12,17,23,26,34</t>
+          <t>05,06,14,18,30,33</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>145</v>
+        <v>273</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>43538</v>
+        <v>43235</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>05,14,25,26,27,42</t>
+          <t>03,10,13,38,40,42</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>144</v>
+        <v>274</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>43540</v>
+        <v>43439</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>06,07,22,27,32,41</t>
+          <t>15,16,24,25,39,40</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>143</v>
+        <v>275</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>43543</v>
+        <v>43378</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>13,19,29,33,36,37</t>
+          <t>03,09,10,18,37,41</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>43545</v>
+        <v>43317</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>18,23,25,27,39,40</t>
+          <t>04,07,17,23,26,38</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>141</v>
+        <v>277</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>43547</v>
+        <v>43225</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>01,09,10,16,19,35</t>
+          <t>01,05,12,15,24,39</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>140</v>
+        <v>278</v>
       </c>
       <c r="B280" s="2" t="n">
-        <v>43550</v>
+        <v>43164</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>26,31,38,40,41,42</t>
+          <t>01,12,22,23,25,26</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>139</v>
+        <v>279</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>43552</v>
+        <v>43105</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>13,15,20,35,36,38</t>
+          <t>12,14,17,28,31,36</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>138</v>
+        <v>280</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>43554</v>
+        <v>43218</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>02,06,13,15,21,35</t>
+          <t>02,03,22,35,37,42</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>136</v>
+        <v>281</v>
       </c>
       <c r="B283" s="2" t="n">
-        <v>43559</v>
+        <v>43216</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>03,16,19,25,32,37</t>
+          <t>04,13,22,23,32,41</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>125</v>
+        <v>282</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>43560</v>
+        <v>43214</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>05,09,14,16,22,40</t>
+          <t>03,08,12,23,25,41</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>112</v>
+        <v>283</v>
       </c>
       <c r="B285" s="2" t="n">
-        <v>43561</v>
+        <v>43211</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>04,09,14,21,37,41</t>
+          <t>04,11,12,14,33,39</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>99</v>
+        <v>284</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>43562</v>
+        <v>43209</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>01,05,19,22,25,38</t>
+          <t>11,14,16,23,29,31</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>132</v>
+        <v>285</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>43568</v>
+        <v>43207</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>07,12,16,26,35,41</t>
+          <t>04,06,30,39,41,42</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>131</v>
+        <v>286</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>43571</v>
+        <v>43204</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>02,09,23,27,34,41</t>
+          <t>03,10,18,29,35,41</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>130</v>
+        <v>287</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>43578</v>
+        <v>43438</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>16,18,20,22,31,37</t>
+          <t>09,12,27,29,32,33</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>129</v>
+        <v>288</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>43580</v>
+        <v>43377</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>05,09,24,27,36,38</t>
+          <t>02,11,25,31,34,39</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>128</v>
+        <v>289</v>
       </c>
       <c r="B291" s="2" t="n">
-        <v>43582</v>
+        <v>43285</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>08,12,20,21,31,38</t>
+          <t>11,16,18,26,30,36</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>43585</v>
+        <v>43224</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>17,18,19,25,26,33</t>
+          <t>03,08,20,22,31,40</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>174</v>
+        <v>291</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>43586</v>
+        <v>43163</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>01,08,12,19,23,42</t>
+          <t>07,19,27,29,36,38</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>161</v>
+        <v>292</v>
       </c>
       <c r="B294" s="2" t="n">
-        <v>43587</v>
+        <v>43186</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>11,15,24,28,31,36</t>
+          <t>01,05,08,22,34,38</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>149</v>
+        <v>293</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>43588</v>
+        <v>43183</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>01,11,25,26,35,42</t>
+          <t>04,08,17,21,31,32</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>72</v>
+        <v>294</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>43594</v>
+        <v>43181</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>15,16,19,20,39,40</t>
+          <t>04,06,15,20,39,42</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>59</v>
+        <v>295</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>43595</v>
+        <v>43179</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>04,17,26,30,32,37</t>
+          <t>05,11,26,30,34,38</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>46</v>
+        <v>296</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>43596</v>
+        <v>43176</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>18,23,28,32,35,38</t>
+          <t>08,09,12,23,24,31</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>34</v>
+        <v>297</v>
       </c>
       <c r="B299" s="2" t="n">
-        <v>43597</v>
+        <v>43174</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>01,02,12,30,35,40</t>
+          <t>02,09,17,27,37,42</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>121</v>
+        <v>298</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>43599</v>
+        <v>43172</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>05,06,08,09,22,32</t>
+          <t>02,03,28,32,36,41</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>120</v>
+        <v>299</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>43601</v>
+        <v>43376</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>08,09,18,22,30,38</t>
+          <t>03,26,38,39,41,42</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>119</v>
+        <v>300</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>43603</v>
+        <v>43315</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>06,23,24,34,35,37</t>
+          <t>14,24,25,27,36,38</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>118</v>
+        <v>301</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>43606</v>
+        <v>43254</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>01,04,13,19,25,34</t>
+          <t>04,05,23,30,37,39</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>117</v>
+        <v>302</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>43608</v>
+        <v>43162</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>09,13,21,28,33,37</t>
+          <t>08,19,24,30,35,39</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>116</v>
+        <v>303</v>
       </c>
       <c r="B305" s="2" t="n">
-        <v>43610</v>
+        <v>43103</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>02,04,07,09,19,34</t>
+          <t>07,14,25,34,40,42</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>115</v>
+        <v>304</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>43613</v>
+        <v>43158</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>06,08,15,18,30,32</t>
+          <t>10,12,19,26,28,36</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>114</v>
+        <v>305</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>43615</v>
+        <v>43155</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>04,09,16,26,30,32</t>
+          <t>09,12,17,25,32,34</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>135</v>
+        <v>306</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>43620</v>
+        <v>43153</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>03,09,12,15,18,42</t>
+          <t>18,25,27,30,35,41</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>111</v>
+        <v>307</v>
       </c>
       <c r="B309" s="2" t="n">
-        <v>43622</v>
+        <v>43151</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>12,17,20,34,36,37</t>
+          <t>02,21,25,34,35,40</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="B310" s="2" t="n">
-        <v>43623</v>
+        <v>43148</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>10,11,12,17,29,35</t>
+          <t>05,19,22,33,40,41</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>85</v>
+        <v>309</v>
       </c>
       <c r="B311" s="2" t="n">
-        <v>43624</v>
+        <v>43146</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>03,07,23,27,38,41</t>
+          <t>01,21,22,24,28,39</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>108</v>
+        <v>310</v>
       </c>
       <c r="B312" s="2" t="n">
-        <v>43629</v>
+        <v>43144</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>01,02,12,17,19,32</t>
+          <t>07,19,21,22,31,35</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>107</v>
+        <v>311</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>43631</v>
+        <v>43375</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>03,25,31,37,40,42</t>
+          <t>06,08,18,23,30,41</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>106</v>
+        <v>312</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>43634</v>
+        <v>43314</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>01,02,04,09,20,42</t>
+          <t>07,08,11,19,30,32</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>105</v>
+        <v>313</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>43636</v>
+        <v>43253</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>06,08,25,29,36,42</t>
+          <t>01,04,09,21,29,36</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>104</v>
+        <v>314</v>
       </c>
       <c r="B316" s="2" t="n">
-        <v>43638</v>
+        <v>43161</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>01,09,21,23,27,39</t>
+          <t>03,14,19,21,22,29</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c r="B317" s="2" t="n">
-        <v>43641</v>
+        <v>43102</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>17,20,21,26,28,40</t>
+          <t>06,13,14,18,30,34</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>102</v>
+        <v>316</v>
       </c>
       <c r="B318" s="2" t="n">
-        <v>43643</v>
+        <v>43130</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>03,16,19,20,28,31</t>
+          <t>02,06,11,12,20,35</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>101</v>
+        <v>317</v>
       </c>
       <c r="B319" s="2" t="n">
-        <v>43645</v>
+        <v>43127</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>07,10,13,18,26,28</t>
+          <t>04,06,07,12,24,30</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>160</v>
+        <v>318</v>
       </c>
       <c r="B320" s="2" t="n">
-        <v>43648</v>
+        <v>43125</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>07,14,18,23,27,40</t>
+          <t>02,05,10,16,24,26</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="B321" s="2" t="n">
-        <v>43649</v>
+        <v>43123</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>14,24,29,33,34,35</t>
+          <t>05,11,24,31,33,42</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>124</v>
+        <v>320</v>
       </c>
       <c r="B322" s="2" t="n">
-        <v>43651</v>
+        <v>43120</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>02,06,17,27,30,41</t>
+          <t>06,16,25,29,30,38</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>71</v>
+        <v>321</v>
       </c>
       <c r="B323" s="2" t="n">
-        <v>43655</v>
+        <v>43118</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>10,17,28,31,34,40</t>
+          <t>01,05,17,35,37,40</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="B324" s="2" t="n">
-        <v>43657</v>
+        <v>43116</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>05,13,24,33,36,42</t>
+          <t>04,07,08,12,32,38</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>33</v>
+        <v>323</v>
       </c>
       <c r="B325" s="2" t="n">
-        <v>43658</v>
+        <v>43113</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>06,09,17,20,31,34</t>
+          <t>02,08,12,25,31,32</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>95</v>
+        <v>324</v>
       </c>
       <c r="B326" s="2" t="n">
-        <v>43659</v>
+        <v>43405</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>02,07,08,15,28,34</t>
+          <t>01,03,11,24,38,41</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>94</v>
+        <v>325</v>
       </c>
       <c r="B327" s="2" t="n">
-        <v>43662</v>
+        <v>43344</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>18,19,25,36,38,39</t>
+          <t>07,11,27,28,34,42</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>93</v>
+        <v>326</v>
       </c>
       <c r="B328" s="2" t="n">
-        <v>43664</v>
+        <v>43252</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>14,16,19,25,29,38</t>
+          <t>11,13,15,24,28,40</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>92</v>
+        <v>327</v>
       </c>
       <c r="B329" s="2" t="n">
-        <v>43666</v>
+        <v>43191</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>01,05,08,23,24,38</t>
+          <t>05,11,16,19,26,30</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>91</v>
+        <v>328</v>
       </c>
       <c r="B330" s="2" t="n">
-        <v>43669</v>
+        <v>43132</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>01,04,07,22,30,32</t>
+          <t>04,14,16,17,19,29</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>90</v>
+        <v>329</v>
       </c>
       <c r="B331" s="2" t="n">
-        <v>43671</v>
+        <v>43099</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>03,10,13,22,27,32</t>
+          <t>05,10,11,28,38,41</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>89</v>
+        <v>330</v>
       </c>
       <c r="B332" s="2" t="n">
-        <v>43673</v>
+        <v>43097</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>05,09,16,17,31,32</t>
+          <t>06,10,16,17,30,38</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>88</v>
+        <v>331</v>
       </c>
       <c r="B333" s="2" t="n">
-        <v>43676</v>
+        <v>43095</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>09,11,22,30,35,41</t>
+          <t>02,14,33,34,39,41</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>173</v>
+        <v>332</v>
       </c>
       <c r="B334" s="2" t="n">
-        <v>43678</v>
+        <v>43092</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>12,16,17,22,27,32</t>
+          <t>16,18,29,31,39,41</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>110</v>
+        <v>333</v>
       </c>
       <c r="B335" s="2" t="n">
-        <v>43683</v>
+        <v>43090</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>05,07,08,11,25,40</t>
+          <t>03,19,26,27,36,39</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>84</v>
+        <v>334</v>
       </c>
       <c r="B336" s="2" t="n">
-        <v>43685</v>
+        <v>43088</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>13,14,18,26,31,37</t>
+          <t>02,04,17,18,28,34</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>58</v>
+        <v>335</v>
       </c>
       <c r="B337" s="2" t="n">
-        <v>43687</v>
+        <v>43085</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>18,20,24,26,30,34</t>
+          <t>03,08,13,19,22,26</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>82</v>
+        <v>336</v>
       </c>
       <c r="B338" s="2" t="n">
-        <v>43690</v>
+        <v>43083</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>03,12,13,25,26,39</t>
+          <t>01,05,14,16,23,28</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="B339" s="2" t="n">
-        <v>43692</v>
+        <v>43081</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>06,16,21,27,33,37</t>
+          <t>15,17,18,20,24,40</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="B340" s="2" t="n">
-        <v>43694</v>
+        <v>42990</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>10,13,22,30,38,40</t>
+          <t>04,11,12,25,27,30</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="B341" s="2" t="n">
-        <v>43697</v>
+        <v>42928</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>07,08,15,16,19,23</t>
+          <t>09,10,21,24,27,37</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="B342" s="2" t="n">
-        <v>43699</v>
+        <v>42867</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>19,21,26,28,29,35</t>
+          <t>11,14,15,21,23,30</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="B343" s="2" t="n">
-        <v>43701</v>
+        <v>42778</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>02,10,13,14,17,36</t>
+          <t>04,21,27,30,33,39</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="B344" s="2" t="n">
-        <v>43704</v>
+        <v>43069</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>03,06,18,19,24,41</t>
+          <t>03,09,26,27,31,33</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="B345" s="2" t="n">
-        <v>43706</v>
+        <v>43067</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>05,07,08,11,40,42</t>
+          <t>01,07,16,17,28,39</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="B346" s="2" t="n">
-        <v>43708</v>
+        <v>43064</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>21,22,33,35,36,41</t>
+          <t>01,07,11,22,29,35</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>159</v>
+        <v>345</v>
       </c>
       <c r="B347" s="2" t="n">
-        <v>43710</v>
+        <v>43062</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>03,05,12,15,20,21</t>
+          <t>01,16,24,28,34,40</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>147</v>
+        <v>346</v>
       </c>
       <c r="B348" s="2" t="n">
-        <v>43711</v>
+        <v>43060</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>07,10,15,23,36,41</t>
+          <t>07,24,26,31,32,38</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>134</v>
+        <v>347</v>
       </c>
       <c r="B349" s="2" t="n">
-        <v>43712</v>
+        <v>43057</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>03,04,16,31,35,38</t>
+          <t>02,12,15,20,37,38</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>123</v>
+        <v>348</v>
       </c>
       <c r="B350" s="2" t="n">
-        <v>43713</v>
+        <v>43055</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>07,08,17,28,35,42</t>
+          <t>08,17,28,30,38,42</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>97</v>
+        <v>349</v>
       </c>
       <c r="B351" s="2" t="n">
-        <v>43715</v>
+        <v>43053</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>01,03,04,12,22,38</t>
+          <t>04,10,21,23,27,28</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>44</v>
+        <v>350</v>
       </c>
       <c r="B352" s="2" t="n">
-        <v>43719</v>
+        <v>43050</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>10,11,14,15,26,27</t>
+          <t>03,06,09,23,25,30</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>68</v>
+        <v>351</v>
       </c>
       <c r="B353" s="2" t="n">
-        <v>43722</v>
+        <v>42989</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>03,26,33,34,38,42</t>
+          <t>06,07,12,17,27,37</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>67</v>
+        <v>352</v>
       </c>
       <c r="B354" s="2" t="n">
-        <v>43725</v>
+        <v>42927</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>03,04,05,18,37,42</t>
+          <t>09,15,30,33,34,36</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>66</v>
+        <v>353</v>
       </c>
       <c r="B355" s="2" t="n">
-        <v>43727</v>
+        <v>42836</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>07,21,23,33,34,39</t>
+          <t>08,10,19,25,26,42</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>65</v>
+        <v>354</v>
       </c>
       <c r="B356" s="2" t="n">
-        <v>43729</v>
+        <v>42777</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>03,06,26,31,32,42</t>
+          <t>03,11,18,19,31,42</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>64</v>
+        <v>355</v>
       </c>
       <c r="B357" s="2" t="n">
-        <v>43732</v>
+        <v>43039</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>06,16,25,33,34,35</t>
+          <t>08,14,15,20,25,42</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>63</v>
+        <v>356</v>
       </c>
       <c r="B358" s="2" t="n">
-        <v>43734</v>
+        <v>43036</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>04,06,17,19,21,36</t>
+          <t>02,11,15,20,22,31</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>62</v>
+        <v>357</v>
       </c>
       <c r="B359" s="2" t="n">
-        <v>43736</v>
+        <v>43034</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>07,24,25,26,27,37</t>
+          <t>11,13,16,30,36,37</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>172</v>
+        <v>358</v>
       </c>
       <c r="B360" s="2" t="n">
-        <v>43739</v>
+        <v>43032</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>04,12,14,28,30,41</t>
+          <t>01,07,12,23,28,30</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>83</v>
+        <v>359</v>
       </c>
       <c r="B361" s="2" t="n">
-        <v>43746</v>
+        <v>43029</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>18,21,23,29,34,39</t>
+          <t>03,07,19,26,31,34</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>70</v>
+        <v>360</v>
       </c>
       <c r="B362" s="2" t="n">
-        <v>43747</v>
+        <v>43027</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>06,07,09,23,24,36</t>
+          <t>11,15,16,28,32,38</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>57</v>
+        <v>361</v>
       </c>
       <c r="B363" s="2" t="n">
-        <v>43748</v>
+        <v>43025</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>09,10,13,18,27,42</t>
+          <t>07,09,16,20,24,28</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>32</v>
+        <v>362</v>
       </c>
       <c r="B364" s="2" t="n">
-        <v>43750</v>
+        <v>43022</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>01,05,10,30,33,35</t>
+          <t>01,04,11,13,19,36</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>55</v>
+        <v>363</v>
       </c>
       <c r="B365" s="2" t="n">
-        <v>43753</v>
+        <v>43079</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>10,21,23,27,38,39</t>
+          <t>06,16,21,33,37,39</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>54</v>
+        <v>364</v>
       </c>
       <c r="B366" s="2" t="n">
-        <v>43755</v>
+        <v>43018</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>07,10,13,17,26,40</t>
+          <t>05,07,08,19,27,36</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>53</v>
+        <v>365</v>
       </c>
       <c r="B367" s="2" t="n">
-        <v>43757</v>
+        <v>42926</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>03,10,25,26,38,42</t>
+          <t>02,09,21,23,30,40</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>52</v>
+        <v>366</v>
       </c>
       <c r="B368" s="2" t="n">
-        <v>43760</v>
+        <v>42865</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>05,07,16,23,31,41</t>
+          <t>03,07,09,11,12,21</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>51</v>
+        <v>367</v>
       </c>
       <c r="B369" s="2" t="n">
-        <v>43762</v>
+        <v>42804</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>11,14,15,31,38,42</t>
+          <t>01,07,12,17,28,31</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>50</v>
+        <v>368</v>
       </c>
       <c r="B370" s="2" t="n">
-        <v>43764</v>
+        <v>43008</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>16,18,23,34,39,42</t>
+          <t>08,09,12,27,36,39</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>49</v>
+        <v>369</v>
       </c>
       <c r="B371" s="2" t="n">
-        <v>43767</v>
+        <v>43006</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>05,25,26,28,38,42</t>
+          <t>02,08,18,20,25,30</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>48</v>
+        <v>370</v>
       </c>
       <c r="B372" s="2" t="n">
-        <v>43769</v>
+        <v>43004</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>05,06,12,14,39,42</t>
+          <t>06,07,19,23,24,41</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>133</v>
+        <v>371</v>
       </c>
       <c r="B373" s="2" t="n">
-        <v>43773</v>
+        <v>43001</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>09,17,18,20,27,39</t>
+          <t>11,13,19,21,22,31</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>122</v>
+        <v>372</v>
       </c>
       <c r="B374" s="2" t="n">
-        <v>43774</v>
+        <v>42999</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>07,18,21,23,37,38</t>
+          <t>04,05,07,16,23,39</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>109</v>
+        <v>373</v>
       </c>
       <c r="B375" s="2" t="n">
-        <v>43775</v>
+        <v>42997</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>07,08,19,27,35,36</t>
+          <t>06,24,25,27,35,42</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>96</v>
+        <v>374</v>
       </c>
       <c r="B376" s="2" t="n">
-        <v>43776</v>
+        <v>42994</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>05,07,10,24,25,34</t>
+          <t>01,05,22,27,34,38</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>42</v>
+        <v>375</v>
       </c>
       <c r="B377" s="2" t="n">
-        <v>43783</v>
+        <v>42992</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>05,14,18,25,30,34</t>
+          <t>11,12,16,20,31,38</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>41</v>
+        <v>376</v>
       </c>
       <c r="B378" s="2" t="n">
-        <v>43785</v>
+        <v>43078</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>08,09,20,26,31,34</t>
+          <t>01,12,19,24,26,38</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>40</v>
+        <v>377</v>
       </c>
       <c r="B379" s="2" t="n">
-        <v>43788</v>
+        <v>42987</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>02,03,05,09,40,41</t>
+          <t>10,11,21,29,37,41</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>39</v>
+        <v>378</v>
       </c>
       <c r="B380" s="2" t="n">
-        <v>43790</v>
+        <v>42925</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>07,15,16,19,21,22</t>
+          <t>26,27,28,30,41,42</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>38</v>
+        <v>379</v>
       </c>
       <c r="B381" s="2" t="n">
-        <v>43795</v>
+        <v>42864</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>06,07,15,35,38,40</t>
+          <t>05,06,12,29,39,42</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>37</v>
+        <v>380</v>
       </c>
       <c r="B382" s="2" t="n">
-        <v>43797</v>
+        <v>42775</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>02,04,10,34,38,40</t>
+          <t>03,04,28,32,36,41</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>36</v>
+        <v>381</v>
       </c>
       <c r="B383" s="2" t="n">
-        <v>43799</v>
+        <v>42978</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>01,11,13,14,37,40</t>
+          <t>02,04,14,17,25,27</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>171</v>
+        <v>382</v>
       </c>
       <c r="B384" s="2" t="n">
-        <v>43800</v>
+        <v>42976</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>23,25,29,31,32,42</t>
+          <t>01,05,21,22,28,41</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>158</v>
+        <v>383</v>
       </c>
       <c r="B385" s="2" t="n">
-        <v>43801</v>
+        <v>42973</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>04,05,06,36,37,40</t>
+          <t>22,24,36,37,38,41</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>146</v>
+        <v>384</v>
       </c>
       <c r="B386" s="2" t="n">
-        <v>43802</v>
+        <v>42971</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>19,20,29,31,39,40</t>
+          <t>13,25,32,33,34,36</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>69</v>
+        <v>385</v>
       </c>
       <c r="B387" s="2" t="n">
-        <v>43808</v>
+        <v>42969</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>03,17,25,30,31,37</t>
+          <t>02,17,23,29,30,42</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>56</v>
+        <v>386</v>
       </c>
       <c r="B388" s="2" t="n">
-        <v>43809</v>
+        <v>42966</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>07,09,14,15,19,28</t>
+          <t>06,11,16,29,35,37</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>43</v>
+        <v>387</v>
       </c>
       <c r="B389" s="2" t="n">
-        <v>43810</v>
+        <v>42964</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>07,10,16,17,24,27</t>
+          <t>09,11,13,32,33,37</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>31</v>
+        <v>388</v>
       </c>
       <c r="B390" s="2" t="n">
-        <v>43811</v>
+        <v>42962</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>03,04,10,14,31,37</t>
+          <t>08,10,15,30,35,38</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>30</v>
+        <v>389</v>
       </c>
       <c r="B391" s="2" t="n">
-        <v>43813</v>
+        <v>43077</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>01,10,19,25,37,42</t>
+          <t>04,14,17,18,30,33</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>29</v>
+        <v>390</v>
       </c>
       <c r="B392" s="2" t="n">
-        <v>43816</v>
+        <v>43016</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>02,06,20,30,33,42</t>
+          <t>08,12,18,28,29,40</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>28</v>
+        <v>391</v>
       </c>
       <c r="B393" s="2" t="n">
-        <v>43818</v>
+        <v>42955</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>02,06,11,22,26,33</t>
+          <t>01,07,19,25,30,31</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>27</v>
+        <v>392</v>
       </c>
       <c r="B394" s="2" t="n">
-        <v>43820</v>
+        <v>42863</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>12,18,24,28,32,39</t>
+          <t>12,19,24,35,38,42</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>26</v>
+        <v>393</v>
       </c>
       <c r="B395" s="2" t="n">
-        <v>43823</v>
+        <v>42802</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>14,15,17,19,31,38</t>
+          <t>10,20,22,24,30,42</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>25</v>
+        <v>394</v>
       </c>
       <c r="B396" s="2" t="n">
-        <v>43825</v>
+        <v>42743</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>04,05,17,19,20,25</t>
+          <t>07,09,10,29,35,42</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>24</v>
+        <v>395</v>
       </c>
       <c r="B397" s="2" t="n">
-        <v>43827</v>
+        <v>42945</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>04,05,23,31,37,38</t>
+          <t>02,05,10,13,26,42</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>23</v>
+        <v>396</v>
       </c>
       <c r="B398" s="2" t="n">
-        <v>43830</v>
+        <v>42943</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>16,20,22,25,38,40</t>
+          <t>03,15,23,25,34,39</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>9</v>
+        <v>397</v>
       </c>
       <c r="B399" s="2" t="n">
-        <v>43832</v>
+        <v>42941</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>05,09,10,17,18,29</t>
+          <t>06,25,28,31,33,38</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>17</v>
+        <v>398</v>
       </c>
       <c r="B400" s="2" t="n">
-        <v>43844</v>
+        <v>42938</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>13,20,33,34,39,40</t>
+          <t>03,14,17,21,29,37</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>16</v>
+        <v>399</v>
       </c>
       <c r="B401" s="2" t="n">
-        <v>43846</v>
+        <v>42936</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>11,13,14,15,20,21</t>
+          <t>02,04,09,10,24,29</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="B402" s="2" t="n">
-        <v>43848</v>
+        <v>42934</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>05,10,12,18,35,42</t>
+          <t>04,05,13,27,31,36</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>14</v>
+        <v>401</v>
       </c>
       <c r="B403" s="2" t="n">
-        <v>43851</v>
+        <v>42931</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>07,09,11,19,36,37</t>
+          <t>01,12,18,19,28,42</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>13</v>
+        <v>402</v>
       </c>
       <c r="B404" s="2" t="n">
-        <v>43853</v>
+        <v>42929</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>02,04,09,22,25,40</t>
+          <t>11,14,17,28,34,36</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>12</v>
+        <v>403</v>
       </c>
       <c r="B405" s="2" t="n">
-        <v>43855</v>
+        <v>43046</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>10,20,31,34,38,41</t>
+          <t>01,07,08,18,23,31</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>11</v>
+        <v>404</v>
       </c>
       <c r="B406" s="2" t="n">
-        <v>43858</v>
+        <v>42954</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>11,14,16,20,24,38</t>
+          <t>04,07,10,33,37,40</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>10</v>
+        <v>405</v>
       </c>
       <c r="B407" s="2" t="n">
-        <v>43860</v>
+        <v>42893</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>16,30,31,37,38,40</t>
+          <t>01,04,05,27,36,41</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>22</v>
+        <v>406</v>
       </c>
       <c r="B408" s="2" t="n">
-        <v>43862</v>
+        <v>42832</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>01,16,17,20,31,42</t>
+          <t>05,10,29,32,34,36</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>4</v>
+        <v>407</v>
       </c>
       <c r="B409" s="2" t="n">
-        <v>43874</v>
+        <v>42742</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>08,11,15,27,36,41</t>
+          <t>11,21,31,32,40,41</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>3</v>
+        <v>408</v>
       </c>
       <c r="B410" s="2" t="n">
-        <v>43876</v>
+        <v>42915</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>15,18,25,27,28,38</t>
+          <t>04,08,14,21,38,40</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>2</v>
+        <v>409</v>
       </c>
       <c r="B411" s="2" t="n">
-        <v>43879</v>
+        <v>42913</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>05,06,10,14,18,32</t>
+          <t>06,10,20,30,34,35</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>1</v>
+        <v>410</v>
       </c>
       <c r="B412" s="2" t="n">
-        <v>43881</v>
+        <v>42910</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>05,08,17,23,37,41</t>
+          <t>02,07,13,21,40,41</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="B413" s="2" t="n">
-        <v>43883</v>
+        <v>42908</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>04,05,16,37,38,39</t>
+          <t>06,12,13,16,21,27</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>21</v>
+        <v>412</v>
       </c>
       <c r="B414" s="2" t="n">
-        <v>43922</v>
+        <v>42906</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>05,08,09,14,27,39</t>
+          <t>11,12,13,14,24,25</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>8</v>
+        <v>413</v>
       </c>
       <c r="B415" s="2" t="n">
-        <v>43923</v>
+        <v>42903</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>03,08,20,24,25,31</t>
+          <t>16,18,29,32,33,39</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>7</v>
+        <v>414</v>
       </c>
       <c r="B416" s="2" t="n">
-        <v>43984</v>
+        <v>42901</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>05,09,19,25,30,35</t>
+          <t>02,07,18,20,37,40</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>20</v>
+        <v>415</v>
       </c>
       <c r="B417" s="2" t="n">
-        <v>44013</v>
+        <v>42899</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>02,12,14,27,31,35</t>
+          <t>05,06,08,13,25,36</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>6</v>
+        <v>416</v>
       </c>
       <c r="B418" s="2" t="n">
-        <v>44045</v>
+        <v>43014</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>14,20,22,24,35,37</t>
+          <t>02,06,13,19,23,42</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>19</v>
+        <v>417</v>
       </c>
       <c r="B419" s="2" t="n">
-        <v>44075</v>
+        <v>42953</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>11,18,28,30,31,40</t>
+          <t>03,09,27,35,40,42</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>18</v>
+        <v>418</v>
       </c>
       <c r="B420" s="2" t="n">
-        <v>44136</v>
+        <v>42892</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>05,16,17,21,29,30</t>
+          <t>01,05,13,25,30,37</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>5</v>
+        <v>419</v>
       </c>
       <c r="B421" s="2" t="n">
-        <v>44137</v>
+        <v>42800</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>03,11,15,22,23,40</t>
+          <t>20,22,24,28,31,40</t>
         </is>
       </c>
     </row>

--- a/Data_Gathering/PastDataResults.xlsx
+++ b/Data_Gathering/PastDataResults.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -59,12 +56,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -386,12 +382,14 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>43883</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>05/03/2020</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>04,05,16,37,38,39</t>
+          <t>14,15,17,20,24,39</t>
         </is>
       </c>
     </row>
@@ -399,12 +397,14 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>43881</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>03/03/2020</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>05,08,17,23,37,41</t>
+          <t>05,07,09,25,39,40</t>
         </is>
       </c>
     </row>
@@ -412,12 +412,14 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>43879</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>29/02/2020</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>05,06,10,14,18,32</t>
+          <t>08,10,23,24,39,42</t>
         </is>
       </c>
     </row>
@@ -425,12 +427,14 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>43876</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>27/02/2020</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15,18,25,27,28,38</t>
+          <t>05,07,16,29,32,34</t>
         </is>
       </c>
     </row>
@@ -438,12 +442,14 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>43874</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>25/02/2020</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08,11,15,27,36,41</t>
+          <t>03,05,16,22,38,42</t>
         </is>
       </c>
     </row>
@@ -451,12 +457,14 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>44137</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>22/02/2020</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>03,11,15,22,23,40</t>
+          <t>04,05,16,37,38,39</t>
         </is>
       </c>
     </row>
@@ -464,12 +472,14 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>44045</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20/02/2020</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14,20,22,24,35,37</t>
+          <t>05,08,17,23,37,41</t>
         </is>
       </c>
     </row>
@@ -477,12 +487,14 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>43984</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>18/02/2020</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>05,09,19,25,30,35</t>
+          <t>05,06,10,14,18,32</t>
         </is>
       </c>
     </row>
@@ -490,12 +502,14 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>43923</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15/02/2020</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>03,08,20,24,25,31</t>
+          <t>15,18,25,27,28,38</t>
         </is>
       </c>
     </row>
@@ -503,12 +517,14 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>43832</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>13/02/2020</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>05,09,10,17,18,29</t>
+          <t>08,11,15,27,36,41</t>
         </is>
       </c>
     </row>
@@ -516,12 +532,14 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>43860</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11/02/2020</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16,30,31,37,38,40</t>
+          <t>03,11,15,22,23,40</t>
         </is>
       </c>
     </row>
@@ -529,12 +547,14 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>43858</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>08/02/2020</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11,14,16,20,24,38</t>
+          <t>14,20,22,24,35,37</t>
         </is>
       </c>
     </row>
@@ -542,12 +562,14 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>43855</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>06/02/2020</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10,20,31,34,38,41</t>
+          <t>05,09,19,25,30,35</t>
         </is>
       </c>
     </row>
@@ -555,12 +577,14 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>43853</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>04/02/2020</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>02,04,09,22,25,40</t>
+          <t>03,08,20,24,25,31</t>
         </is>
       </c>
     </row>
@@ -568,12 +592,14 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>43851</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>01/02/2020</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>07,09,11,19,36,37</t>
+          <t>05,09,10,17,18,29</t>
         </is>
       </c>
     </row>
@@ -581,12 +607,14 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>43848</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>30/01/2020</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>05,10,12,18,35,42</t>
+          <t>16,30,31,37,38,40</t>
         </is>
       </c>
     </row>
@@ -594,12 +622,14 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>43846</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>28/01/2020</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11,13,14,15,20,21</t>
+          <t>11,14,16,20,24,38</t>
         </is>
       </c>
     </row>
@@ -607,12 +637,14 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>43844</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>25/01/2020</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13,20,33,34,39,40</t>
+          <t>10,20,31,34,38,41</t>
         </is>
       </c>
     </row>
@@ -620,12 +652,14 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>44136</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>23/01/2020</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>05,16,17,21,29,30</t>
+          <t>02,04,09,22,25,40</t>
         </is>
       </c>
     </row>
@@ -633,12 +667,14 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>44075</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>21/01/2020</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>11,18,28,30,31,40</t>
+          <t>07,09,11,19,36,37</t>
         </is>
       </c>
     </row>
@@ -646,12 +682,14 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>44013</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>18/01/2020</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>02,12,14,27,31,35</t>
+          <t>05,10,12,18,35,42</t>
         </is>
       </c>
     </row>
@@ -659,12 +697,14 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>43922</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>16/01/2020</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>05,08,09,14,27,39</t>
+          <t>11,13,14,15,20,21</t>
         </is>
       </c>
     </row>
@@ -672,12 +712,14 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>43862</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>14/01/2020</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01,16,17,20,31,42</t>
+          <t>13,20,33,34,39,40</t>
         </is>
       </c>
     </row>
@@ -685,12 +727,14 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>43830</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>11/01/2020</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16,20,22,25,38,40</t>
+          <t>05,16,17,21,29,30</t>
         </is>
       </c>
     </row>
@@ -698,12 +742,14 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>43827</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>09/01/2020</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>04,05,23,31,37,38</t>
+          <t>11,18,28,30,31,40</t>
         </is>
       </c>
     </row>
@@ -711,12 +757,14 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>43825</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>07/01/2020</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>04,05,17,19,20,25</t>
+          <t>02,12,14,27,31,35</t>
         </is>
       </c>
     </row>
@@ -724,12 +772,14 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>43823</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>04/01/2020</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14,15,17,19,31,38</t>
+          <t>05,08,09,14,27,39</t>
         </is>
       </c>
     </row>
@@ -737,12 +787,14 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>43820</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>02/01/2020</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12,18,24,28,32,39</t>
+          <t>01,16,17,20,31,42</t>
         </is>
       </c>
     </row>
@@ -750,12 +802,14 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>43818</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>02,06,11,22,26,33</t>
+          <t>16,20,22,25,38,40</t>
         </is>
       </c>
     </row>
@@ -763,12 +817,14 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>43816</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>28/12/2019</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>02,06,20,30,33,42</t>
+          <t>04,05,23,31,37,38</t>
         </is>
       </c>
     </row>
@@ -776,12 +832,14 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>43813</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>26/12/2019</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01,10,19,25,37,42</t>
+          <t>04,05,17,19,20,25</t>
         </is>
       </c>
     </row>
@@ -789,12 +847,14 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>43811</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>24/12/2019</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>03,04,10,14,31,37</t>
+          <t>14,15,17,19,31,38</t>
         </is>
       </c>
     </row>
@@ -802,12 +862,14 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>43750</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>21/12/2019</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01,05,10,30,33,35</t>
+          <t>12,18,24,28,32,39</t>
         </is>
       </c>
     </row>
@@ -815,12 +877,14 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>43658</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>19/12/2019</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>06,09,17,20,31,34</t>
+          <t>02,06,11,22,26,33</t>
         </is>
       </c>
     </row>
@@ -828,12 +892,14 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>43597</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>17/12/2019</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01,02,12,30,35,40</t>
+          <t>02,06,20,30,33,42</t>
         </is>
       </c>
     </row>
@@ -841,12 +907,14 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>43536</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>14/12/2019</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01,12,17,23,26,34</t>
+          <t>01,10,19,25,37,42</t>
         </is>
       </c>
     </row>
@@ -854,12 +922,14 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="n">
-        <v>43799</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>12/12/2019</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01,11,13,14,37,40</t>
+          <t>03,04,10,14,31,37</t>
         </is>
       </c>
     </row>
@@ -867,12 +937,14 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>43797</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>10/12/2019</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>02,04,10,34,38,40</t>
+          <t>01,05,10,30,33,35</t>
         </is>
       </c>
     </row>
@@ -880,12 +952,14 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>43795</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>07/12/2019</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>06,07,15,35,38,40</t>
+          <t>06,09,17,20,31,34</t>
         </is>
       </c>
     </row>
@@ -893,12 +967,14 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="n">
-        <v>43790</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>05/12/2019</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>07,15,16,19,21,22</t>
+          <t>01,02,12,30,35,40</t>
         </is>
       </c>
     </row>
@@ -906,12 +982,14 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>43788</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>03/12/2019</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>02,03,05,09,40,41</t>
+          <t>01,12,17,23,26,34</t>
         </is>
       </c>
     </row>
@@ -919,12 +997,14 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>43785</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>30/11/2019</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>08,09,20,26,31,34</t>
+          <t>01,11,13,14,37,40</t>
         </is>
       </c>
     </row>
@@ -932,12 +1012,14 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>43783</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>28/11/2019</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>05,14,18,25,30,34</t>
+          <t>02,04,10,34,38,40</t>
         </is>
       </c>
     </row>
@@ -945,12 +1027,14 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>43810</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>26/11/2019</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>07,10,16,17,24,27</t>
+          <t>06,07,15,35,38,40</t>
         </is>
       </c>
     </row>
@@ -958,12 +1042,14 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="n">
-        <v>43719</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>21/11/2019</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>10,11,14,15,26,27</t>
+          <t>07,15,16,19,21,22</t>
         </is>
       </c>
     </row>
@@ -971,12 +1057,14 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="n">
-        <v>43657</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>19/11/2019</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>05,13,24,33,36,42</t>
+          <t>02,03,05,09,40,41</t>
         </is>
       </c>
     </row>
@@ -984,12 +1072,14 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="n">
-        <v>43596</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>16/11/2019</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>18,23,28,32,35,38</t>
+          <t>08,09,20,26,31,34</t>
         </is>
       </c>
     </row>
@@ -997,12 +1087,14 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="n">
-        <v>43507</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>14/11/2019</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>04,08,29,34,36,38</t>
+          <t>05,14,18,25,30,34</t>
         </is>
       </c>
     </row>
@@ -1010,12 +1102,14 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="n">
-        <v>43769</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>12/11/2019</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>05,06,12,14,39,42</t>
+          <t>07,10,16,17,24,27</t>
         </is>
       </c>
     </row>
@@ -1023,12 +1117,14 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="n">
-        <v>43767</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>09/11/2019</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>05,25,26,28,38,42</t>
+          <t>10,11,14,15,26,27</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1132,14 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="2" t="n">
-        <v>43764</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>07/11/2019</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>16,18,23,34,39,42</t>
+          <t>05,13,24,33,36,42</t>
         </is>
       </c>
     </row>
@@ -1049,12 +1147,14 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="2" t="n">
-        <v>43762</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>05/11/2019</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>11,14,15,31,38,42</t>
+          <t>18,23,28,32,35,38</t>
         </is>
       </c>
     </row>
@@ -1062,12 +1162,14 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="2" t="n">
-        <v>43760</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>02/11/2019</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>05,07,16,23,31,41</t>
+          <t>04,08,29,34,36,38</t>
         </is>
       </c>
     </row>
@@ -1075,12 +1177,14 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" s="2" t="n">
-        <v>43757</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>31/10/2019</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>03,10,25,26,38,42</t>
+          <t>05,06,12,14,39,42</t>
         </is>
       </c>
     </row>
@@ -1088,12 +1192,14 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" s="2" t="n">
-        <v>43755</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>29/10/2019</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>07,10,13,17,26,40</t>
+          <t>05,25,26,28,38,42</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1207,14 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="2" t="n">
-        <v>43753</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>26/10/2019</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10,21,23,27,38,39</t>
+          <t>16,18,23,34,39,42</t>
         </is>
       </c>
     </row>
@@ -1114,12 +1222,14 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="2" t="n">
-        <v>43809</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>24/10/2019</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>07,09,14,15,19,28</t>
+          <t>11,14,15,31,38,42</t>
         </is>
       </c>
     </row>
@@ -1127,12 +1237,14 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="2" t="n">
-        <v>43748</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>22/10/2019</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>09,10,13,18,27,42</t>
+          <t>05,07,16,23,31,41</t>
         </is>
       </c>
     </row>
@@ -1140,12 +1252,14 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" s="2" t="n">
-        <v>43687</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>19/10/2019</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>18,20,24,26,30,34</t>
+          <t>03,10,25,26,38,42</t>
         </is>
       </c>
     </row>
@@ -1153,12 +1267,14 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="n">
-        <v>43595</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>17/10/2019</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>04,17,26,30,32,37</t>
+          <t>07,10,13,17,26,40</t>
         </is>
       </c>
     </row>
@@ -1166,12 +1282,14 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" s="2" t="n">
-        <v>43534</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>15/10/2019</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>06,16,27,31,33,35</t>
+          <t>10,21,23,27,38,39</t>
         </is>
       </c>
     </row>
@@ -1179,12 +1297,14 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" s="2" t="n">
-        <v>43475</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>12/10/2019</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>11,21,22,23,27,36</t>
+          <t>07,09,14,15,19,28</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1312,14 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" s="2" t="n">
-        <v>43736</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>10/10/2019</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>07,24,25,26,27,37</t>
+          <t>09,10,13,18,27,42</t>
         </is>
       </c>
     </row>
@@ -1205,12 +1327,14 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" s="2" t="n">
-        <v>43734</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>08/10/2019</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>04,06,17,19,21,36</t>
+          <t>18,20,24,26,30,34</t>
         </is>
       </c>
     </row>
@@ -1218,12 +1342,14 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="2" t="n">
-        <v>43732</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>05/10/2019</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>06,16,25,33,34,35</t>
+          <t>04,17,26,30,32,37</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1357,14 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" s="2" t="n">
-        <v>43729</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>03/10/2019</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>03,06,26,31,32,42</t>
+          <t>06,16,27,31,33,35</t>
         </is>
       </c>
     </row>
@@ -1244,12 +1372,14 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" s="2" t="n">
-        <v>43727</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>07,21,23,33,34,39</t>
+          <t>11,21,22,23,27,36</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1387,14 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" s="2" t="n">
-        <v>43725</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>28/09/2019</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>03,04,05,18,37,42</t>
+          <t>07,24,25,26,27,37</t>
         </is>
       </c>
     </row>
@@ -1270,12 +1402,14 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" s="2" t="n">
-        <v>43722</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>26/09/2019</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>03,26,33,34,38,42</t>
+          <t>04,06,17,19,21,36</t>
         </is>
       </c>
     </row>
@@ -1283,12 +1417,14 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="2" t="n">
-        <v>43808</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>24/09/2019</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>03,17,25,30,31,37</t>
+          <t>06,16,25,33,34,35</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1432,14 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" s="2" t="n">
-        <v>43747</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>21/09/2019</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>06,07,09,23,24,36</t>
+          <t>03,06,26,31,32,42</t>
         </is>
       </c>
     </row>
@@ -1309,12 +1447,14 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" s="2" t="n">
-        <v>43655</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>19/09/2019</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>10,17,28,31,34,40</t>
+          <t>07,21,23,33,34,39</t>
         </is>
       </c>
     </row>
@@ -1322,12 +1462,14 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" s="2" t="n">
-        <v>43594</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>17/09/2019</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>15,16,19,20,39,40</t>
+          <t>03,04,05,18,37,42</t>
         </is>
       </c>
     </row>
@@ -1335,12 +1477,14 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" s="2" t="n">
-        <v>43533</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>14/09/2019</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>04,06,09,18,24,32</t>
+          <t>03,26,33,34,38,42</t>
         </is>
       </c>
     </row>
@@ -1348,12 +1492,14 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" s="2" t="n">
-        <v>43708</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>12/09/2019</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>21,22,33,35,36,41</t>
+          <t>03,17,25,30,31,37</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1507,14 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" s="2" t="n">
-        <v>43706</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>10/09/2019</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>05,07,08,11,40,42</t>
+          <t>06,07,09,23,24,36</t>
         </is>
       </c>
     </row>
@@ -1374,12 +1522,14 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" s="2" t="n">
-        <v>43704</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>07/09/2019</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>03,06,18,19,24,41</t>
+          <t>10,17,28,31,34,40</t>
         </is>
       </c>
     </row>
@@ -1387,12 +1537,14 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" s="2" t="n">
-        <v>43701</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>05/09/2019</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>02,10,13,14,17,36</t>
+          <t>15,16,19,20,39,40</t>
         </is>
       </c>
     </row>
@@ -1400,12 +1552,14 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" s="2" t="n">
-        <v>43699</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>03/09/2019</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>19,21,26,28,29,35</t>
+          <t>04,06,09,18,24,32</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1567,14 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" s="2" t="n">
-        <v>43697</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>31/08/2019</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>07,08,15,16,19,23</t>
+          <t>21,22,33,35,36,41</t>
         </is>
       </c>
     </row>
@@ -1426,12 +1582,14 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" s="2" t="n">
-        <v>43694</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>29/08/2019</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>10,13,22,30,38,40</t>
+          <t>05,07,08,11,40,42</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1597,14 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" s="2" t="n">
-        <v>43692</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>27/08/2019</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>06,16,21,27,33,37</t>
+          <t>03,06,18,19,24,41</t>
         </is>
       </c>
     </row>
@@ -1452,12 +1612,14 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" s="2" t="n">
-        <v>43690</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>24/08/2019</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>03,12,13,25,26,39</t>
+          <t>02,10,13,14,17,36</t>
         </is>
       </c>
     </row>
@@ -1465,12 +1627,14 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" s="2" t="n">
-        <v>43746</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>22/08/2019</t>
+        </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>18,21,23,29,34,39</t>
+          <t>19,21,26,28,29,35</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1642,14 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" s="2" t="n">
-        <v>43685</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>20/08/2019</t>
+        </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>13,14,18,26,31,37</t>
+          <t>07,08,15,16,19,23</t>
         </is>
       </c>
     </row>
@@ -1491,12 +1657,14 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" s="2" t="n">
-        <v>43624</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>17/08/2019</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>03,07,23,27,38,41</t>
+          <t>10,13,22,30,38,40</t>
         </is>
       </c>
     </row>
@@ -1504,12 +1672,14 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" s="2" t="n">
-        <v>43532</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>15/08/2019</t>
+        </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>14,16,19,20,24,26</t>
+          <t>06,16,21,27,33,37</t>
         </is>
       </c>
     </row>
@@ -1517,12 +1687,14 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" s="2" t="n">
-        <v>43473</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>13/08/2019</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>01,02,14,18,31,39</t>
+          <t>03,12,13,25,26,39</t>
         </is>
       </c>
     </row>
@@ -1530,12 +1702,14 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" s="2" t="n">
-        <v>43676</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>10/08/2019</t>
+        </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>09,11,22,30,35,41</t>
+          <t>18,21,23,29,34,39</t>
         </is>
       </c>
     </row>
@@ -1543,12 +1717,14 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" s="2" t="n">
-        <v>43673</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>08/08/2019</t>
+        </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>05,09,16,17,31,32</t>
+          <t>13,14,18,26,31,37</t>
         </is>
       </c>
     </row>
@@ -1556,12 +1732,14 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" s="2" t="n">
-        <v>43671</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>06/08/2019</t>
+        </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>03,10,13,22,27,32</t>
+          <t>03,07,23,27,38,41</t>
         </is>
       </c>
     </row>
@@ -1569,12 +1747,14 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" s="2" t="n">
-        <v>43669</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>03/08/2019</t>
+        </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>01,04,07,22,30,32</t>
+          <t>14,16,19,20,24,26</t>
         </is>
       </c>
     </row>
@@ -1582,12 +1762,14 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" s="2" t="n">
-        <v>43666</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>01/08/2019</t>
+        </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>01,05,08,23,24,38</t>
+          <t>01,02,14,18,31,39</t>
         </is>
       </c>
     </row>
@@ -1595,12 +1777,14 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" s="2" t="n">
-        <v>43664</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>30/07/2019</t>
+        </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>14,16,19,25,29,38</t>
+          <t>09,11,22,30,35,41</t>
         </is>
       </c>
     </row>
@@ -1608,12 +1792,14 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" s="2" t="n">
-        <v>43662</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>27/07/2019</t>
+        </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>18,19,25,36,38,39</t>
+          <t>05,09,16,17,31,32</t>
         </is>
       </c>
     </row>
@@ -1621,12 +1807,14 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" s="2" t="n">
-        <v>43659</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>25/07/2019</t>
+        </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>02,07,08,15,28,34</t>
+          <t>03,10,13,22,27,32</t>
         </is>
       </c>
     </row>
@@ -1634,12 +1822,14 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" s="2" t="n">
-        <v>43776</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>23/07/2019</t>
+        </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>05,07,10,24,25,34</t>
+          <t>01,04,07,22,30,32</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1837,14 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" s="2" t="n">
-        <v>43715</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>20/07/2019</t>
+        </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>01,03,04,12,22,38</t>
+          <t>01,05,08,23,24,38</t>
         </is>
       </c>
     </row>
@@ -1660,12 +1852,14 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" s="2" t="n">
-        <v>43623</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>18/07/2019</t>
+        </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>10,11,12,17,29,35</t>
+          <t>14,16,19,25,29,38</t>
         </is>
       </c>
     </row>
@@ -1673,12 +1867,14 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" s="2" t="n">
-        <v>43562</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>16/07/2019</t>
+        </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>01,05,19,22,25,38</t>
+          <t>18,19,25,36,38,39</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1882,14 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" s="2" t="n">
-        <v>43503</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>13/07/2019</t>
+        </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>08,16,18,28,31,37</t>
+          <t>02,07,08,15,28,34</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1897,14 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" s="2" t="n">
-        <v>43645</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>11/07/2019</t>
+        </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>07,10,13,18,26,28</t>
+          <t>05,07,10,24,25,34</t>
         </is>
       </c>
     </row>
@@ -1712,12 +1912,14 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" s="2" t="n">
-        <v>43643</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>09/07/2019</t>
+        </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>03,16,19,20,28,31</t>
+          <t>01,03,04,12,22,38</t>
         </is>
       </c>
     </row>
@@ -1725,12 +1927,14 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" s="2" t="n">
-        <v>43641</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>06/07/2019</t>
+        </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>17,20,21,26,28,40</t>
+          <t>10,11,12,17,29,35</t>
         </is>
       </c>
     </row>
@@ -1738,12 +1942,14 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" s="2" t="n">
-        <v>43638</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>04/07/2019</t>
+        </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>01,09,21,23,27,39</t>
+          <t>01,05,19,22,25,38</t>
         </is>
       </c>
     </row>
@@ -1751,12 +1957,14 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" s="2" t="n">
-        <v>43636</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>02/07/2019</t>
+        </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>06,08,25,29,36,42</t>
+          <t>08,16,18,28,31,37</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1972,14 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" s="2" t="n">
-        <v>43634</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>29/06/2019</t>
+        </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>01,02,04,09,20,42</t>
+          <t>07,10,13,18,26,28</t>
         </is>
       </c>
     </row>
@@ -1777,12 +1987,14 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" s="2" t="n">
-        <v>43631</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>27/06/2019</t>
+        </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>03,25,31,37,40,42</t>
+          <t>03,16,19,20,28,31</t>
         </is>
       </c>
     </row>
@@ -1790,12 +2002,14 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" s="2" t="n">
-        <v>43629</v>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>25/06/2019</t>
+        </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>01,02,12,17,19,32</t>
+          <t>17,20,21,26,28,40</t>
         </is>
       </c>
     </row>
@@ -1803,12 +2017,14 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" s="2" t="n">
-        <v>43775</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>22/06/2019</t>
+        </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>07,08,19,27,35,36</t>
+          <t>01,09,21,23,27,39</t>
         </is>
       </c>
     </row>
@@ -1816,12 +2032,14 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" s="2" t="n">
-        <v>43683</v>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>20/06/2019</t>
+        </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>05,07,08,11,25,40</t>
+          <t>06,08,25,29,36,42</t>
         </is>
       </c>
     </row>
@@ -1829,12 +2047,14 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" s="2" t="n">
-        <v>43622</v>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>18/06/2019</t>
+        </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>12,17,20,34,36,37</t>
+          <t>01,02,04,09,20,42</t>
         </is>
       </c>
     </row>
@@ -1842,12 +2062,14 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" s="2" t="n">
-        <v>43561</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>15/06/2019</t>
+        </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>04,09,14,21,37,41</t>
+          <t>03,25,31,37,40,42</t>
         </is>
       </c>
     </row>
@@ -1855,12 +2077,14 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" s="2" t="n">
-        <v>43471</v>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>13/06/2019</t>
+        </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>06,09,19,25,32,40</t>
+          <t>01,02,12,17,19,32</t>
         </is>
       </c>
     </row>
@@ -1868,12 +2092,14 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" s="2" t="n">
-        <v>43615</v>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>11/06/2019</t>
+        </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>04,09,16,26,30,32</t>
+          <t>07,08,19,27,35,36</t>
         </is>
       </c>
     </row>
@@ -1881,12 +2107,14 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" s="2" t="n">
-        <v>43613</v>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>08/06/2019</t>
+        </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>06,08,15,18,30,32</t>
+          <t>05,07,08,11,25,40</t>
         </is>
       </c>
     </row>
@@ -1894,12 +2122,14 @@
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" s="2" t="n">
-        <v>43610</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>06/06/2019</t>
+        </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>02,04,07,09,19,34</t>
+          <t>12,17,20,34,36,37</t>
         </is>
       </c>
     </row>
@@ -1907,12 +2137,14 @@
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" s="2" t="n">
-        <v>43608</v>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>04/06/2019</t>
+        </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>09,13,21,28,33,37</t>
+          <t>04,09,14,21,37,41</t>
         </is>
       </c>
     </row>
@@ -1920,12 +2152,14 @@
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" s="2" t="n">
-        <v>43606</v>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>01/06/2019</t>
+        </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>01,04,13,19,25,34</t>
+          <t>06,09,19,25,32,40</t>
         </is>
       </c>
     </row>
@@ -1933,12 +2167,14 @@
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" s="2" t="n">
-        <v>43603</v>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>30/05/2019</t>
+        </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>06,23,24,34,35,37</t>
+          <t>04,09,16,26,30,32</t>
         </is>
       </c>
     </row>
@@ -1946,12 +2182,14 @@
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" s="2" t="n">
-        <v>43601</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>28/05/2019</t>
+        </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>08,09,18,22,30,38</t>
+          <t>06,08,15,18,30,32</t>
         </is>
       </c>
     </row>
@@ -1959,12 +2197,14 @@
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" s="2" t="n">
-        <v>43599</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>25/05/2019</t>
+        </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>05,06,08,09,22,32</t>
+          <t>02,04,07,09,19,34</t>
         </is>
       </c>
     </row>
@@ -1972,12 +2212,14 @@
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" s="2" t="n">
-        <v>43774</v>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>23/05/2019</t>
+        </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>07,18,21,23,37,38</t>
+          <t>09,13,21,28,33,37</t>
         </is>
       </c>
     </row>
@@ -1985,12 +2227,14 @@
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" s="2" t="n">
-        <v>43713</v>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>21/05/2019</t>
+        </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>07,08,17,28,35,42</t>
+          <t>01,04,13,19,25,34</t>
         </is>
       </c>
     </row>
@@ -1998,12 +2242,14 @@
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" s="2" t="n">
-        <v>43651</v>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>18/05/2019</t>
+        </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>02,06,17,27,30,41</t>
+          <t>06,23,24,34,35,37</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2257,14 @@
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" s="2" t="n">
-        <v>43560</v>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>16/05/2019</t>
+        </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>05,09,14,16,22,40</t>
+          <t>08,09,18,22,30,38</t>
         </is>
       </c>
     </row>
@@ -2024,12 +2272,14 @@
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" s="2" t="n">
-        <v>43501</v>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>14/05/2019</t>
+        </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>13,18,20,23,28,34</t>
+          <t>05,06,08,09,22,32</t>
         </is>
       </c>
     </row>
@@ -2037,12 +2287,14 @@
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" s="2" t="n">
-        <v>43585</v>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>11/05/2019</t>
+        </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>17,18,19,25,26,33</t>
+          <t>07,18,21,23,37,38</t>
         </is>
       </c>
     </row>
@@ -2050,12 +2302,14 @@
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130" s="2" t="n">
-        <v>43582</v>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>09/05/2019</t>
+        </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>08,12,20,21,31,38</t>
+          <t>07,08,17,28,35,42</t>
         </is>
       </c>
     </row>
@@ -2063,12 +2317,14 @@
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" s="2" t="n">
-        <v>43580</v>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>07/05/2019</t>
+        </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>05,09,24,27,36,38</t>
+          <t>02,06,17,27,30,41</t>
         </is>
       </c>
     </row>
@@ -2076,12 +2332,14 @@
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" s="2" t="n">
-        <v>43578</v>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>04/05/2019</t>
+        </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>16,18,20,22,31,37</t>
+          <t>05,09,14,16,22,40</t>
         </is>
       </c>
     </row>
@@ -2089,12 +2347,14 @@
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" s="2" t="n">
-        <v>43571</v>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>02/05/2019</t>
+        </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>02,09,23,27,34,41</t>
+          <t>13,18,20,23,28,34</t>
         </is>
       </c>
     </row>
@@ -2102,12 +2362,14 @@
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B134" s="2" t="n">
-        <v>43568</v>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>30/04/2019</t>
+        </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>07,12,16,26,35,41</t>
+          <t>17,18,19,25,26,33</t>
         </is>
       </c>
     </row>
@@ -2115,12 +2377,14 @@
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B135" s="2" t="n">
-        <v>43773</v>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>27/04/2019</t>
+        </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>09,17,18,20,27,39</t>
+          <t>08,12,20,21,31,38</t>
         </is>
       </c>
     </row>
@@ -2128,12 +2392,14 @@
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B136" s="2" t="n">
-        <v>43712</v>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>25/04/2019</t>
+        </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>03,04,16,31,35,38</t>
+          <t>05,09,24,27,36,38</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2407,14 @@
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B137" s="2" t="n">
-        <v>43620</v>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>23/04/2019</t>
+        </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>03,09,12,15,18,42</t>
+          <t>16,18,20,22,31,37</t>
         </is>
       </c>
     </row>
@@ -2154,12 +2422,14 @@
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B138" s="2" t="n">
-        <v>43559</v>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>16/04/2019</t>
+        </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>03,16,19,25,32,37</t>
+          <t>02,09,23,27,34,41</t>
         </is>
       </c>
     </row>
@@ -2167,12 +2437,14 @@
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B139" s="2" t="n">
-        <v>43500</v>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>13/04/2019</t>
+        </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>05,08,20,34,36,37</t>
+          <t>07,12,16,26,35,41</t>
         </is>
       </c>
     </row>
@@ -2180,12 +2452,14 @@
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B140" s="2" t="n">
-        <v>43554</v>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>11/04/2019</t>
+        </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>02,06,13,15,21,35</t>
+          <t>09,17,18,20,27,39</t>
         </is>
       </c>
     </row>
@@ -2193,12 +2467,14 @@
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B141" s="2" t="n">
-        <v>43552</v>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>09/04/2019</t>
+        </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>13,15,20,35,36,38</t>
+          <t>03,04,16,31,35,38</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2482,14 @@
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B142" s="2" t="n">
-        <v>43550</v>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>06/04/2019</t>
+        </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>26,31,38,40,41,42</t>
+          <t>03,09,12,15,18,42</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2497,14 @@
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B143" s="2" t="n">
-        <v>43547</v>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>04/04/2019</t>
+        </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>01,09,10,16,19,35</t>
+          <t>03,16,19,25,32,37</t>
         </is>
       </c>
     </row>
@@ -2232,12 +2512,14 @@
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B144" s="2" t="n">
-        <v>43545</v>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>02/04/2019</t>
+        </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>18,23,25,27,39,40</t>
+          <t>05,08,20,34,36,37</t>
         </is>
       </c>
     </row>
@@ -2245,12 +2527,14 @@
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B145" s="2" t="n">
-        <v>43543</v>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>30/03/2019</t>
+        </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>13,19,29,33,36,37</t>
+          <t>02,06,13,15,21,35</t>
         </is>
       </c>
     </row>
@@ -2258,12 +2542,14 @@
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146" s="2" t="n">
-        <v>43540</v>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>28/03/2019</t>
+        </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>06,07,22,27,32,41</t>
+          <t>13,15,20,35,36,38</t>
         </is>
       </c>
     </row>
@@ -2271,12 +2557,14 @@
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B147" s="2" t="n">
-        <v>43538</v>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>26/03/2019</t>
+        </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>05,14,25,26,27,42</t>
+          <t>26,31,38,40,41,42</t>
         </is>
       </c>
     </row>
@@ -2284,12 +2572,14 @@
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B148" s="2" t="n">
-        <v>43802</v>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>23/03/2019</t>
+        </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>19,20,29,31,39,40</t>
+          <t>01,09,10,16,19,35</t>
         </is>
       </c>
     </row>
@@ -2297,12 +2587,14 @@
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B149" s="2" t="n">
-        <v>43711</v>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>21/03/2019</t>
+        </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>07,10,15,23,36,41</t>
+          <t>18,23,25,27,39,40</t>
         </is>
       </c>
     </row>
@@ -2310,12 +2602,14 @@
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B150" s="2" t="n">
-        <v>43649</v>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>19/03/2019</t>
+        </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>14,24,29,33,34,35</t>
+          <t>13,19,29,33,36,37</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2617,14 @@
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B151" s="2" t="n">
-        <v>43588</v>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>16/03/2019</t>
+        </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>01,11,25,26,35,42</t>
+          <t>06,07,22,27,32,41</t>
         </is>
       </c>
     </row>
@@ -2336,12 +2632,14 @@
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B152" s="2" t="n">
-        <v>43499</v>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>14/03/2019</t>
+        </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>14,20,22,27,32,37</t>
+          <t>05,14,25,26,27,42</t>
         </is>
       </c>
     </row>
@@ -2349,12 +2647,14 @@
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153" s="2" t="n">
-        <v>43524</v>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>12/03/2019</t>
+        </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>01,11,13,19,21,31</t>
+          <t>19,20,29,31,39,40</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2662,14 @@
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154" s="2" t="n">
-        <v>43522</v>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>09/03/2019</t>
+        </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>10,16,17,22,26,33</t>
+          <t>07,10,15,23,36,41</t>
         </is>
       </c>
     </row>
@@ -2375,12 +2677,14 @@
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155" s="2" t="n">
-        <v>43519</v>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>07/03/2019</t>
+        </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>21,22,23,31,33,40</t>
+          <t>14,24,29,33,34,35</t>
         </is>
       </c>
     </row>
@@ -2388,12 +2692,14 @@
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B156" s="2" t="n">
-        <v>43517</v>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>05/03/2019</t>
+        </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>11,13,14,24,33,41</t>
+          <t>01,11,25,26,35,42</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2707,14 @@
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B157" s="2" t="n">
-        <v>43515</v>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>02/03/2019</t>
+        </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>01,03,06,08,15,24</t>
+          <t>14,20,22,27,32,37</t>
         </is>
       </c>
     </row>
@@ -2414,12 +2722,14 @@
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158" s="2" t="n">
-        <v>43512</v>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>28/02/2019</t>
+        </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>03,16,23,33,39,42</t>
+          <t>01,11,13,19,21,31</t>
         </is>
       </c>
     </row>
@@ -2427,12 +2737,14 @@
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B159" s="2" t="n">
-        <v>43510</v>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>26/02/2019</t>
+        </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>01,14,15,38,39,41</t>
+          <t>10,16,17,22,26,33</t>
         </is>
       </c>
     </row>
@@ -2440,12 +2752,14 @@
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B160" s="2" t="n">
-        <v>43801</v>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>23/02/2019</t>
+        </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>04,05,06,36,37,40</t>
+          <t>21,22,23,31,33,40</t>
         </is>
       </c>
     </row>
@@ -2453,12 +2767,14 @@
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B161" s="2" t="n">
-        <v>43710</v>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>21/02/2019</t>
+        </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>03,05,12,15,20,21</t>
+          <t>11,13,14,24,33,41</t>
         </is>
       </c>
     </row>
@@ -2466,12 +2782,14 @@
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B162" s="2" t="n">
-        <v>43648</v>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>19/02/2019</t>
+        </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>07,14,18,23,27,40</t>
+          <t>01,03,06,08,15,24</t>
         </is>
       </c>
     </row>
@@ -2479,12 +2797,14 @@
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B163" s="2" t="n">
-        <v>43587</v>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>16/02/2019</t>
+        </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>11,15,24,28,31,36</t>
+          <t>03,16,23,33,39,42</t>
         </is>
       </c>
     </row>
@@ -2492,12 +2812,14 @@
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164" s="2" t="n">
-        <v>43498</v>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>14/02/2019</t>
+        </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>04,05,19,30,31,36</t>
+          <t>01,14,15,38,39,41</t>
         </is>
       </c>
     </row>
@@ -2505,12 +2827,14 @@
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165" s="2" t="n">
-        <v>43496</v>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>12/02/2019</t>
+        </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>03,06,09,13,28,36</t>
+          <t>04,05,06,36,37,40</t>
         </is>
       </c>
     </row>
@@ -2518,12 +2842,14 @@
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166" s="2" t="n">
-        <v>43494</v>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>09/02/2019</t>
+        </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>06,08,14,20,27,37</t>
+          <t>03,05,12,15,20,21</t>
         </is>
       </c>
     </row>
@@ -2531,12 +2857,14 @@
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B167" s="2" t="n">
-        <v>43491</v>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>07/02/2019</t>
+        </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>01,12,35,36,41,42</t>
+          <t>07,14,18,23,27,40</t>
         </is>
       </c>
     </row>
@@ -2544,12 +2872,14 @@
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B168" s="2" t="n">
-        <v>43489</v>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>05/02/2019</t>
+        </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>01,04,11,12,19,29</t>
+          <t>11,15,24,28,31,36</t>
         </is>
       </c>
     </row>
@@ -2557,12 +2887,14 @@
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169" s="2" t="n">
-        <v>43487</v>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>02/02/2019</t>
+        </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>03,10,13,15,26,36</t>
+          <t>04,05,19,30,31,36</t>
         </is>
       </c>
     </row>
@@ -2570,12 +2902,14 @@
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B170" s="2" t="n">
-        <v>43484</v>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>31/01/2019</t>
+        </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>04,07,13,19,22,42</t>
+          <t>03,06,09,13,28,36</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2917,14 @@
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B171" s="2" t="n">
-        <v>43482</v>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>29/01/2019</t>
+        </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>04,19,23,29,40,42</t>
+          <t>06,08,14,20,27,37</t>
         </is>
       </c>
     </row>
@@ -2596,12 +2932,14 @@
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172" s="2" t="n">
-        <v>43480</v>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>26/01/2019</t>
+        </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>04,08,19,20,24,31</t>
+          <t>01,12,35,36,41,42</t>
         </is>
       </c>
     </row>
@@ -2609,12 +2947,14 @@
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B173" s="2" t="n">
-        <v>43800</v>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>24/01/2019</t>
+        </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>23,25,29,31,32,42</t>
+          <t>01,04,11,12,19,29</t>
         </is>
       </c>
     </row>
@@ -2622,12 +2962,14 @@
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B174" s="2" t="n">
-        <v>43739</v>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>22/01/2019</t>
+        </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>04,12,14,28,30,41</t>
+          <t>03,10,13,15,26,36</t>
         </is>
       </c>
     </row>
@@ -2635,12 +2977,14 @@
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B175" s="2" t="n">
-        <v>43678</v>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>19/01/2019</t>
+        </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>12,16,17,22,27,32</t>
+          <t>04,07,13,19,22,42</t>
         </is>
       </c>
     </row>
@@ -2648,12 +2992,14 @@
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B176" s="2" t="n">
-        <v>43586</v>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>17/01/2019</t>
+        </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>01,08,12,19,23,42</t>
+          <t>04,19,23,29,40,42</t>
         </is>
       </c>
     </row>
@@ -2661,12 +3007,14 @@
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177" s="2" t="n">
-        <v>43525</v>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>15/01/2019</t>
+        </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>04,05,16,22,35,39</t>
+          <t>04,08,19,20,24,31</t>
         </is>
       </c>
     </row>
@@ -2674,12 +3022,14 @@
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B178" s="2" t="n">
-        <v>43463</v>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>12/01/2019</t>
+        </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>04,12,15,19,21,36</t>
+          <t>23,25,29,31,32,42</t>
         </is>
       </c>
     </row>
@@ -2687,12 +3037,14 @@
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B179" s="2" t="n">
-        <v>43461</v>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>10/01/2019</t>
+        </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>02,09,13,20,27,36</t>
+          <t>04,12,14,28,30,41</t>
         </is>
       </c>
     </row>
@@ -2700,12 +3052,14 @@
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B180" s="2" t="n">
-        <v>43456</v>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>08/01/2019</t>
+        </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>07,08,09,22,26,35</t>
+          <t>12,16,17,22,27,32</t>
         </is>
       </c>
     </row>
@@ -2713,12 +3067,14 @@
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B181" s="2" t="n">
-        <v>43454</v>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>05/01/2019</t>
+        </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>26,27,31,32,34,41</t>
+          <t>01,08,12,19,23,42</t>
         </is>
       </c>
     </row>
@@ -2726,12 +3082,14 @@
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B182" s="2" t="n">
-        <v>43452</v>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>03/01/2019</t>
+        </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>04,29,32,33,40,41</t>
+          <t>04,05,16,22,35,39</t>
         </is>
       </c>
     </row>
@@ -2739,12 +3097,14 @@
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B183" s="2" t="n">
-        <v>43449</v>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>29/12/2018</t>
+        </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>10,11,15,18,23,41</t>
+          <t>04,12,15,19,21,36</t>
         </is>
       </c>
     </row>
@@ -2752,12 +3112,14 @@
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B184" s="2" t="n">
-        <v>43447</v>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>27/12/2018</t>
+        </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>08,11,14,19,36,38</t>
+          <t>02,09,13,20,27,36</t>
         </is>
       </c>
     </row>
@@ -2765,12 +3127,14 @@
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B185" s="2" t="n">
-        <v>43416</v>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>22/12/2018</t>
+        </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>02,03,09,13,22,27</t>
+          <t>07,08,09,22,26,35</t>
         </is>
       </c>
     </row>
@@ -2778,12 +3142,14 @@
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B186" s="2" t="n">
-        <v>43324</v>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>20/12/2018</t>
+        </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>07,08,13,15,29,40</t>
+          <t>26,27,31,32,34,41</t>
         </is>
       </c>
     </row>
@@ -2791,12 +3157,14 @@
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187" s="2" t="n">
-        <v>43263</v>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>18/12/2018</t>
+        </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>05,16,20,24,34,41</t>
+          <t>04,29,32,33,40,41</t>
         </is>
       </c>
     </row>
@@ -2804,12 +3172,14 @@
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B188" s="2" t="n">
-        <v>43202</v>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>15/12/2018</t>
+        </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>08,15,17,23,26,32</t>
+          <t>10,11,15,18,23,41</t>
         </is>
       </c>
     </row>
@@ -2817,12 +3187,14 @@
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B189" s="2" t="n">
-        <v>43112</v>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>13/12/2018</t>
+        </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>01,11,15,23,24,26</t>
+          <t>08,11,14,19,36,38</t>
         </is>
       </c>
     </row>
@@ -2830,12 +3202,14 @@
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B190" s="2" t="n">
-        <v>43433</v>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>11/12/2018</t>
+        </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>04,05,13,19,38,41</t>
+          <t>02,03,09,13,22,27</t>
         </is>
       </c>
     </row>
@@ -2843,12 +3217,14 @@
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B191" s="2" t="n">
-        <v>43431</v>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>08/12/2018</t>
+        </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>01,06,10,20,26,39</t>
+          <t>07,08,13,15,29,40</t>
         </is>
       </c>
     </row>
@@ -2856,12 +3232,14 @@
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B192" s="2" t="n">
-        <v>43428</v>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>06/12/2018</t>
+        </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>17,19,25,28,29,32</t>
+          <t>05,16,20,24,34,41</t>
         </is>
       </c>
     </row>
@@ -2869,12 +3247,14 @@
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B193" s="2" t="n">
-        <v>43426</v>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>04/12/2018</t>
+        </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>01,16,20,34,40,41</t>
+          <t>08,15,17,23,26,32</t>
         </is>
       </c>
     </row>
@@ -2882,12 +3262,14 @@
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B194" s="2" t="n">
-        <v>43424</v>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>01/12/2018</t>
+        </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>16,20,23,28,29,30</t>
+          <t>01,11,15,23,24,26</t>
         </is>
       </c>
     </row>
@@ -2895,12 +3277,14 @@
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B195" s="2" t="n">
-        <v>43421</v>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>29/11/2018</t>
+        </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>05,24,27,29,32,41</t>
+          <t>04,05,13,19,38,41</t>
         </is>
       </c>
     </row>
@@ -2908,12 +3292,14 @@
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B196" s="2" t="n">
-        <v>43419</v>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>27/11/2018</t>
+        </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>10,18,25,32,33,38</t>
+          <t>01,06,10,20,26,39</t>
         </is>
       </c>
     </row>
@@ -2921,12 +3307,14 @@
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B197" s="2" t="n">
-        <v>43417</v>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>24/11/2018</t>
+        </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>03,09,18,25,38,39</t>
+          <t>17,19,25,28,29,32</t>
         </is>
       </c>
     </row>
@@ -2934,12 +3322,14 @@
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B198" s="2" t="n">
-        <v>43384</v>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>22/11/2018</t>
+        </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>02,12,22,28,32,42</t>
+          <t>01,16,20,34,40,41</t>
         </is>
       </c>
     </row>
@@ -2947,12 +3337,14 @@
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B199" s="2" t="n">
-        <v>43323</v>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>20/11/2018</t>
+        </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>10,14,18,26,27,37</t>
+          <t>16,20,23,28,29,30</t>
         </is>
       </c>
     </row>
@@ -2960,12 +3352,14 @@
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B200" s="2" t="n">
-        <v>43262</v>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>17/11/2018</t>
+        </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>02,08,10,19,22,31</t>
+          <t>05,24,27,29,32,41</t>
         </is>
       </c>
     </row>
@@ -2973,12 +3367,14 @@
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="B201" s="2" t="n">
-        <v>43170</v>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>15/11/2018</t>
+        </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>07,08,19,25,29,41</t>
+          <t>10,18,25,32,33,38</t>
         </is>
       </c>
     </row>
@@ -2986,12 +3382,14 @@
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B202" s="2" t="n">
-        <v>43111</v>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>13/11/2018</t>
+        </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>10,12,16,26,30,39</t>
+          <t>03,09,18,25,38,39</t>
         </is>
       </c>
     </row>
@@ -2999,12 +3397,14 @@
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B203" s="2" t="n">
-        <v>43403</v>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>10/11/2018</t>
+        </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>01,06,08,14,19,31</t>
+          <t>02,12,22,28,32,42</t>
         </is>
       </c>
     </row>
@@ -3012,12 +3412,14 @@
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="B204" s="2" t="n">
-        <v>43400</v>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>08/11/2018</t>
+        </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>01,03,05,15,21,41</t>
+          <t>10,14,18,26,27,37</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3427,14 @@
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B205" s="2" t="n">
-        <v>43398</v>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>06/11/2018</t>
+        </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>03,05,30,31,35,41</t>
+          <t>02,08,10,19,22,31</t>
         </is>
       </c>
     </row>
@@ -3038,12 +3442,14 @@
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B206" s="2" t="n">
-        <v>43396</v>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>03/11/2018</t>
+        </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>03,19,20,27,29,31</t>
+          <t>07,08,19,25,29,41</t>
         </is>
       </c>
     </row>
@@ -3051,12 +3457,14 @@
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="B207" s="2" t="n">
-        <v>43393</v>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>01/11/2018</t>
+        </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>02,04,14,32,37,39</t>
+          <t>10,12,16,26,30,39</t>
         </is>
       </c>
     </row>
@@ -3064,12 +3472,14 @@
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B208" s="2" t="n">
-        <v>43391</v>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>30/10/2018</t>
+        </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>01,08,16,17,18,39</t>
+          <t>01,06,08,14,19,31</t>
         </is>
       </c>
     </row>
@@ -3077,12 +3487,14 @@
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B209" s="2" t="n">
-        <v>43389</v>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>27/10/2018</t>
+        </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>04,10,14,25,29,32</t>
+          <t>01,03,05,15,21,41</t>
         </is>
       </c>
     </row>
@@ -3090,12 +3502,14 @@
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="B210" s="2" t="n">
-        <v>43386</v>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>25/10/2018</t>
+        </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>02,06,10,32,34,40</t>
+          <t>03,05,30,31,35,41</t>
         </is>
       </c>
     </row>
@@ -3103,12 +3517,14 @@
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B211" s="2" t="n">
-        <v>43414</v>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>23/10/2018</t>
+        </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>07,11,14,20,22,33</t>
+          <t>03,19,20,27,29,31</t>
         </is>
       </c>
     </row>
@@ -3116,12 +3532,14 @@
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B212" s="2" t="n">
-        <v>43353</v>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>20/10/2018</t>
+        </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>11,12,18,29,32,33</t>
+          <t>02,04,14,32,37,39</t>
         </is>
       </c>
     </row>
@@ -3129,12 +3547,14 @@
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B213" s="2" t="n">
-        <v>43261</v>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>18/10/2018</t>
+        </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>01,11,17,21,29,31</t>
+          <t>01,08,16,17,18,39</t>
         </is>
       </c>
     </row>
@@ -3142,12 +3562,14 @@
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B214" s="2" t="n">
-        <v>43200</v>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>16/10/2018</t>
+        </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>02,26,27,28,29,35</t>
+          <t>04,10,14,25,29,32</t>
         </is>
       </c>
     </row>
@@ -3155,12 +3577,14 @@
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B215" s="2" t="n">
-        <v>43141</v>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>13/10/2018</t>
+        </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>04,19,21,22,32,34</t>
+          <t>02,06,10,32,34,40</t>
         </is>
       </c>
     </row>
@@ -3168,12 +3592,14 @@
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B216" s="2" t="n">
-        <v>43372</v>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>11/10/2018</t>
+        </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>02,03,09,12,24,37</t>
+          <t>07,11,14,20,22,33</t>
         </is>
       </c>
     </row>
@@ -3181,12 +3607,14 @@
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B217" s="2" t="n">
-        <v>43370</v>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>09/10/2018</t>
+        </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>10,17,18,20,25,42</t>
+          <t>11,12,18,29,32,33</t>
         </is>
       </c>
     </row>
@@ -3194,12 +3622,14 @@
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B218" s="2" t="n">
-        <v>43368</v>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>06/10/2018</t>
+        </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>08,09,14,19,22,42</t>
+          <t>01,11,17,21,29,31</t>
         </is>
       </c>
     </row>
@@ -3207,12 +3637,14 @@
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="B219" s="2" t="n">
-        <v>43365</v>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>04/10/2018</t>
+        </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>01,11,22,28,33,34</t>
+          <t>02,26,27,28,29,35</t>
         </is>
       </c>
     </row>
@@ -3220,12 +3652,14 @@
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B220" s="2" t="n">
-        <v>43363</v>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>02/10/2018</t>
+        </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>07,09,15,16,24,32</t>
+          <t>04,19,21,22,32,34</t>
         </is>
       </c>
     </row>
@@ -3233,12 +3667,14 @@
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B221" s="2" t="n">
-        <v>43361</v>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>29/09/2018</t>
+        </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>05,07,11,16,35,41</t>
+          <t>02,03,09,12,24,37</t>
         </is>
       </c>
     </row>
@@ -3246,12 +3682,14 @@
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B222" s="2" t="n">
-        <v>43358</v>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>27/09/2018</t>
+        </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>17,24,37,38,39,42</t>
+          <t>10,17,18,20,25,42</t>
         </is>
       </c>
     </row>
@@ -3259,12 +3697,14 @@
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B223" s="2" t="n">
-        <v>43356</v>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>25/09/2018</t>
+        </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>03,05,09,14,30,35</t>
+          <t>08,09,14,19,22,42</t>
         </is>
       </c>
     </row>
@@ -3272,12 +3712,14 @@
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B224" s="2" t="n">
-        <v>43413</v>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>22/09/2018</t>
+        </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>02,14,17,21,31,38</t>
+          <t>01,11,22,28,33,34</t>
         </is>
       </c>
     </row>
@@ -3285,12 +3727,14 @@
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B225" s="2" t="n">
-        <v>43321</v>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>20/09/2018</t>
+        </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>10,13,21,23,26,35</t>
+          <t>07,09,15,16,24,32</t>
         </is>
       </c>
     </row>
@@ -3298,12 +3742,14 @@
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B226" s="2" t="n">
-        <v>43260</v>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>18/09/2018</t>
+        </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>01,04,06,13,15,37</t>
+          <t>05,07,11,16,35,41</t>
         </is>
       </c>
     </row>
@@ -3311,12 +3757,14 @@
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B227" s="2" t="n">
-        <v>43199</v>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>15/09/2018</t>
+        </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>02,15,24,30,36,42</t>
+          <t>17,24,37,38,39,42</t>
         </is>
       </c>
     </row>
@@ -3324,12 +3772,14 @@
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B228" s="2" t="n">
-        <v>43109</v>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>13/09/2018</t>
+        </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>03,06,10,13,14,36</t>
+          <t>03,05,09,14,30,35</t>
         </is>
       </c>
     </row>
@@ -3337,12 +3787,14 @@
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B229" s="2" t="n">
-        <v>43342</v>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>11/09/2018</t>
+        </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>09,14,16,29,34,38</t>
+          <t>02,14,17,21,31,38</t>
         </is>
       </c>
     </row>
@@ -3350,12 +3802,14 @@
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B230" s="2" t="n">
-        <v>43340</v>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>08/09/2018</t>
+        </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>04,07,13,18,22,24</t>
+          <t>10,13,21,23,26,35</t>
         </is>
       </c>
     </row>
@@ -3363,12 +3817,14 @@
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B231" s="2" t="n">
-        <v>43337</v>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>06/09/2018</t>
+        </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>22,23,26,28,30,35</t>
+          <t>01,04,06,13,15,37</t>
         </is>
       </c>
     </row>
@@ -3376,12 +3832,14 @@
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B232" s="2" t="n">
-        <v>43335</v>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>04/09/2018</t>
+        </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>01,13,15,16,22,36</t>
+          <t>02,15,24,30,36,42</t>
         </is>
       </c>
     </row>
@@ -3389,12 +3847,14 @@
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B233" s="2" t="n">
-        <v>43333</v>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>01/09/2018</t>
+        </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>08,09,16,20,28,38</t>
+          <t>03,06,10,13,14,36</t>
         </is>
       </c>
     </row>
@@ -3402,12 +3862,14 @@
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B234" s="2" t="n">
-        <v>43330</v>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>30/08/2018</t>
+        </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>01,06,14,25,34,38</t>
+          <t>09,14,16,29,34,38</t>
         </is>
       </c>
     </row>
@@ -3415,12 +3877,14 @@
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B235" s="2" t="n">
-        <v>43328</v>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>28/08/2018</t>
+        </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>10,15,18,23,30,36</t>
+          <t>04,07,13,18,22,24</t>
         </is>
       </c>
     </row>
@@ -3428,12 +3892,14 @@
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B236" s="2" t="n">
-        <v>43326</v>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>25/08/2018</t>
+        </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>08,26,30,32,36,39</t>
+          <t>22,23,26,28,30,35</t>
         </is>
       </c>
     </row>
@@ -3441,12 +3907,14 @@
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B237" s="2" t="n">
-        <v>43412</v>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>23/08/2018</t>
+        </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>07,20,27,29,37,39</t>
+          <t>01,13,15,16,22,36</t>
         </is>
       </c>
     </row>
@@ -3454,12 +3922,14 @@
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B238" s="2" t="n">
-        <v>43351</v>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>21/08/2018</t>
+        </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>02,16,18,29,35,41</t>
+          <t>08,09,16,20,28,38</t>
         </is>
       </c>
     </row>
@@ -3467,12 +3937,14 @@
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B239" s="2" t="n">
-        <v>43289</v>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>18/08/2018</t>
+        </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>01,13,19,22,24,32</t>
+          <t>01,06,14,25,34,38</t>
         </is>
       </c>
     </row>
@@ -3480,12 +3952,14 @@
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B240" s="2" t="n">
-        <v>43198</v>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>16/08/2018</t>
+        </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>01,05,11,22,28,40</t>
+          <t>10,15,18,23,30,36</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3967,14 @@
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B241" s="2" t="n">
-        <v>43139</v>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>14/08/2018</t>
+        </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>08,14,16,26,36,39</t>
+          <t>08,26,30,32,36,39</t>
         </is>
       </c>
     </row>
@@ -3506,12 +3982,14 @@
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B242" s="2" t="n">
-        <v>43312</v>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>11/08/2018</t>
+        </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>02,05,23,32,38,40</t>
+          <t>07,20,27,29,37,39</t>
         </is>
       </c>
     </row>
@@ -3519,12 +3997,14 @@
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="B243" s="2" t="n">
-        <v>43309</v>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>09/08/2018</t>
+        </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>09,13,28,33,37,42</t>
+          <t>02,16,18,29,35,41</t>
         </is>
       </c>
     </row>
@@ -3532,12 +4012,14 @@
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="B244" s="2" t="n">
-        <v>43307</v>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>07/08/2018</t>
+        </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>02,08,12,22,33,35</t>
+          <t>01,13,19,22,24,32</t>
         </is>
       </c>
     </row>
@@ -3545,12 +4027,14 @@
       <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="B245" s="2" t="n">
-        <v>43305</v>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>04/08/2018</t>
+        </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>01,04,07,14,32,34</t>
+          <t>01,05,11,22,28,40</t>
         </is>
       </c>
     </row>
@@ -3558,12 +4042,14 @@
       <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="B246" s="2" t="n">
-        <v>43302</v>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>02/08/2018</t>
+        </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>06,17,29,31,33,39</t>
+          <t>08,14,16,26,36,39</t>
         </is>
       </c>
     </row>
@@ -3571,12 +4057,14 @@
       <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="B247" s="2" t="n">
-        <v>43300</v>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>31/07/2018</t>
+        </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>09,13,30,36,39,41</t>
+          <t>02,05,23,32,38,40</t>
         </is>
       </c>
     </row>
@@ -3584,12 +4072,14 @@
       <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="B248" s="2" t="n">
-        <v>43298</v>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>28/07/2018</t>
+        </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>12,28,30,31,34,37</t>
+          <t>09,13,28,33,37,42</t>
         </is>
       </c>
     </row>
@@ -3597,12 +4087,14 @@
       <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="B249" s="2" t="n">
-        <v>43295</v>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>26/07/2018</t>
+        </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>08,12,26,31,33,35</t>
+          <t>02,08,12,22,33,35</t>
         </is>
       </c>
     </row>
@@ -3610,12 +4102,14 @@
       <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B250" s="2" t="n">
-        <v>43441</v>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>24/07/2018</t>
+        </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>12,13,22,30,35,39</t>
+          <t>01,04,07,14,32,34</t>
         </is>
       </c>
     </row>
@@ -3623,12 +4117,14 @@
       <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="B251" s="2" t="n">
-        <v>43380</v>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>21/07/2018</t>
+        </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>16,24,27,31,32,40</t>
+          <t>06,17,29,31,33,39</t>
         </is>
       </c>
     </row>
@@ -3636,12 +4132,14 @@
       <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="B252" s="2" t="n">
-        <v>43288</v>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>19/07/2018</t>
+        </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>02,07,11,33,36,39</t>
+          <t>09,13,30,36,39,41</t>
         </is>
       </c>
     </row>
@@ -3649,12 +4147,14 @@
       <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="B253" s="2" t="n">
-        <v>43227</v>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>17/07/2018</t>
+        </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>04,15,27,29,30,34</t>
+          <t>12,28,30,31,34,37</t>
         </is>
       </c>
     </row>
@@ -3662,12 +4162,14 @@
       <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="B254" s="2" t="n">
-        <v>43166</v>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>14/07/2018</t>
+        </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>13,19,21,32,41,42</t>
+          <t>08,12,26,31,33,35</t>
         </is>
       </c>
     </row>
@@ -3675,12 +4177,14 @@
       <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B255" s="2" t="n">
-        <v>43281</v>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>12/07/2018</t>
+        </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>06,20,27,38,39,42</t>
+          <t>12,13,22,30,35,39</t>
         </is>
       </c>
     </row>
@@ -3688,12 +4192,14 @@
       <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="B256" s="2" t="n">
-        <v>43279</v>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>10/07/2018</t>
+        </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>01,16,23,30,34,35</t>
+          <t>16,24,27,31,32,40</t>
         </is>
       </c>
     </row>
@@ -3701,12 +4207,14 @@
       <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="B257" s="2" t="n">
-        <v>43277</v>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>07/07/2018</t>
+        </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>07,15,19,26,27,39</t>
+          <t>02,07,11,33,36,39</t>
         </is>
       </c>
     </row>
@@ -3714,12 +4222,14 @@
       <c r="A258" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="B258" s="2" t="n">
-        <v>43274</v>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>05/07/2018</t>
+        </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>08,20,27,32,40,42</t>
+          <t>04,15,27,29,30,34</t>
         </is>
       </c>
     </row>
@@ -3727,12 +4237,14 @@
       <c r="A259" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="B259" s="2" t="n">
-        <v>43272</v>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>03/07/2018</t>
+        </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>01,08,16,23,30,39</t>
+          <t>13,19,21,32,41,42</t>
         </is>
       </c>
     </row>
@@ -3740,12 +4252,14 @@
       <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="B260" s="2" t="n">
-        <v>43270</v>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>30/06/2018</t>
+        </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>11,24,30,32,34,39</t>
+          <t>06,20,27,38,39,42</t>
         </is>
       </c>
     </row>
@@ -3753,12 +4267,14 @@
       <c r="A261" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="B261" s="2" t="n">
-        <v>43267</v>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>28/06/2018</t>
+        </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>02,08,23,29,38,41</t>
+          <t>01,16,23,30,34,35</t>
         </is>
       </c>
     </row>
@@ -3766,12 +4282,14 @@
       <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="B262" s="2" t="n">
-        <v>43265</v>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>26/06/2018</t>
+        </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>02,03,10,21,24,36</t>
+          <t>07,15,19,26,27,39</t>
         </is>
       </c>
     </row>
@@ -3779,12 +4297,14 @@
       <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="B263" s="2" t="n">
-        <v>43440</v>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>23/06/2018</t>
+        </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>05,14,20,30,35,36</t>
+          <t>08,20,27,32,40,42</t>
         </is>
       </c>
     </row>
@@ -3792,12 +4312,14 @@
       <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
-      <c r="B264" s="2" t="n">
-        <v>43349</v>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>21/06/2018</t>
+        </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>12,21,22,30,37,40</t>
+          <t>01,08,16,23,30,39</t>
         </is>
       </c>
     </row>
@@ -3805,12 +4327,14 @@
       <c r="A265" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="B265" s="2" t="n">
-        <v>43287</v>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>19/06/2018</t>
+        </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>11,27,29,33,35,36</t>
+          <t>11,24,30,32,34,39</t>
         </is>
       </c>
     </row>
@@ -3818,12 +4342,14 @@
       <c r="A266" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="B266" s="2" t="n">
-        <v>43226</v>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>16/06/2018</t>
+        </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>01,17,24,26,30,41</t>
+          <t>02,08,23,29,38,41</t>
         </is>
       </c>
     </row>
@@ -3831,12 +4357,14 @@
       <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="B267" s="2" t="n">
-        <v>43137</v>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>14/06/2018</t>
+        </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>17,23,24,25,29,35</t>
+          <t>02,03,10,21,24,36</t>
         </is>
       </c>
     </row>
@@ -3844,12 +4372,14 @@
       <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="B268" s="2" t="n">
-        <v>43251</v>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>12/06/2018</t>
+        </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>03,15,24,30,31,36</t>
+          <t>05,14,20,30,35,36</t>
         </is>
       </c>
     </row>
@@ -3857,12 +4387,14 @@
       <c r="A269" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="B269" s="2" t="n">
-        <v>43249</v>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>09/06/2018</t>
+        </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>01,13,14,28,33,40</t>
+          <t>12,21,22,30,37,40</t>
         </is>
       </c>
     </row>
@@ -3870,12 +4402,14 @@
       <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="B270" s="2" t="n">
-        <v>43246</v>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>07/06/2018</t>
+        </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>13,16,21,23,34,38</t>
+          <t>11,27,29,33,35,36</t>
         </is>
       </c>
     </row>
@@ -3883,12 +4417,14 @@
       <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="B271" s="2" t="n">
-        <v>43244</v>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>05/06/2018</t>
+        </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>02,15,27,29,30,37</t>
+          <t>01,17,24,26,30,41</t>
         </is>
       </c>
     </row>
@@ -3896,12 +4432,14 @@
       <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="B272" s="2" t="n">
-        <v>43242</v>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>02/06/2018</t>
+        </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>08,11,26,29,30,33</t>
+          <t>17,23,24,25,29,35</t>
         </is>
       </c>
     </row>
@@ -3909,12 +4447,14 @@
       <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="B273" s="2" t="n">
-        <v>43239</v>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>31/05/2018</t>
+        </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>04,08,16,18,29,38</t>
+          <t>03,15,24,30,31,36</t>
         </is>
       </c>
     </row>
@@ -3922,12 +4462,14 @@
       <c r="A274" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="B274" s="2" t="n">
-        <v>43237</v>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>29/05/2018</t>
+        </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>05,06,14,18,30,33</t>
+          <t>01,13,14,28,33,40</t>
         </is>
       </c>
     </row>
@@ -3935,12 +4477,14 @@
       <c r="A275" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="B275" s="2" t="n">
-        <v>43235</v>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>26/05/2018</t>
+        </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>03,10,13,38,40,42</t>
+          <t>13,16,21,23,34,38</t>
         </is>
       </c>
     </row>
@@ -3948,12 +4492,14 @@
       <c r="A276" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="B276" s="2" t="n">
-        <v>43439</v>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>24/05/2018</t>
+        </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>15,16,24,25,39,40</t>
+          <t>02,15,27,29,30,37</t>
         </is>
       </c>
     </row>
@@ -3961,12 +4507,14 @@
       <c r="A277" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="B277" s="2" t="n">
-        <v>43378</v>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>22/05/2018</t>
+        </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>03,09,10,18,37,41</t>
+          <t>08,11,26,29,30,33</t>
         </is>
       </c>
     </row>
@@ -3974,12 +4522,14 @@
       <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="B278" s="2" t="n">
-        <v>43317</v>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>19/05/2018</t>
+        </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>04,07,17,23,26,38</t>
+          <t>04,08,16,18,29,38</t>
         </is>
       </c>
     </row>
@@ -3987,12 +4537,14 @@
       <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="B279" s="2" t="n">
-        <v>43225</v>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>17/05/2018</t>
+        </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>01,05,12,15,24,39</t>
+          <t>05,06,14,18,30,33</t>
         </is>
       </c>
     </row>
@@ -4000,12 +4552,14 @@
       <c r="A280" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="B280" s="2" t="n">
-        <v>43164</v>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>15/05/2018</t>
+        </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>01,12,22,23,25,26</t>
+          <t>03,10,13,38,40,42</t>
         </is>
       </c>
     </row>
@@ -4013,12 +4567,14 @@
       <c r="A281" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="B281" s="2" t="n">
-        <v>43105</v>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>12/05/2018</t>
+        </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>12,14,17,28,31,36</t>
+          <t>15,16,24,25,39,40</t>
         </is>
       </c>
     </row>
@@ -4026,12 +4582,14 @@
       <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="B282" s="2" t="n">
-        <v>43218</v>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>10/05/2018</t>
+        </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>02,03,22,35,37,42</t>
+          <t>03,09,10,18,37,41</t>
         </is>
       </c>
     </row>
@@ -4039,12 +4597,14 @@
       <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="B283" s="2" t="n">
-        <v>43216</v>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>08/05/2018</t>
+        </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>04,13,22,23,32,41</t>
+          <t>04,07,17,23,26,38</t>
         </is>
       </c>
     </row>
@@ -4052,12 +4612,14 @@
       <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="B284" s="2" t="n">
-        <v>43214</v>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>05/05/2018</t>
+        </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>03,08,12,23,25,41</t>
+          <t>01,05,12,15,24,39</t>
         </is>
       </c>
     </row>
@@ -4065,12 +4627,14 @@
       <c r="A285" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="B285" s="2" t="n">
-        <v>43211</v>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>03/05/2018</t>
+        </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>04,11,12,14,33,39</t>
+          <t>01,12,22,23,25,26</t>
         </is>
       </c>
     </row>
@@ -4078,12 +4642,14 @@
       <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="B286" s="2" t="n">
-        <v>43209</v>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>01/05/2018</t>
+        </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>11,14,16,23,29,31</t>
+          <t>12,14,17,28,31,36</t>
         </is>
       </c>
     </row>
@@ -4091,12 +4657,14 @@
       <c r="A287" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="B287" s="2" t="n">
-        <v>43207</v>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>28/04/2018</t>
+        </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>04,06,30,39,41,42</t>
+          <t>02,03,22,35,37,42</t>
         </is>
       </c>
     </row>
@@ -4104,12 +4672,14 @@
       <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="B288" s="2" t="n">
-        <v>43204</v>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>26/04/2018</t>
+        </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>03,10,18,29,35,41</t>
+          <t>04,13,22,23,32,41</t>
         </is>
       </c>
     </row>
@@ -4117,12 +4687,14 @@
       <c r="A289" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="B289" s="2" t="n">
-        <v>43438</v>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>24/04/2018</t>
+        </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>09,12,27,29,32,33</t>
+          <t>03,08,12,23,25,41</t>
         </is>
       </c>
     </row>
@@ -4130,12 +4702,14 @@
       <c r="A290" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="B290" s="2" t="n">
-        <v>43377</v>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>21/04/2018</t>
+        </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>02,11,25,31,34,39</t>
+          <t>04,11,12,14,33,39</t>
         </is>
       </c>
     </row>
@@ -4143,12 +4717,14 @@
       <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="B291" s="2" t="n">
-        <v>43285</v>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>19/04/2018</t>
+        </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>11,16,18,26,30,36</t>
+          <t>11,14,16,23,29,31</t>
         </is>
       </c>
     </row>
@@ -4156,12 +4732,14 @@
       <c r="A292" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="B292" s="2" t="n">
-        <v>43224</v>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>17/04/2018</t>
+        </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>03,08,20,22,31,40</t>
+          <t>04,06,30,39,41,42</t>
         </is>
       </c>
     </row>
@@ -4169,12 +4747,14 @@
       <c r="A293" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="B293" s="2" t="n">
-        <v>43163</v>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>14/04/2018</t>
+        </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>07,19,27,29,36,38</t>
+          <t>03,10,18,29,35,41</t>
         </is>
       </c>
     </row>
@@ -4182,12 +4762,14 @@
       <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="B294" s="2" t="n">
-        <v>43186</v>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>12/04/2018</t>
+        </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>01,05,08,22,34,38</t>
+          <t>09,12,27,29,32,33</t>
         </is>
       </c>
     </row>
@@ -4195,12 +4777,14 @@
       <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
-      <c r="B295" s="2" t="n">
-        <v>43183</v>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>10/04/2018</t>
+        </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>04,08,17,21,31,32</t>
+          <t>02,11,25,31,34,39</t>
         </is>
       </c>
     </row>
@@ -4208,12 +4792,14 @@
       <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="B296" s="2" t="n">
-        <v>43181</v>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>07/04/2018</t>
+        </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>04,06,15,20,39,42</t>
+          <t>11,16,18,26,30,36</t>
         </is>
       </c>
     </row>
@@ -4221,12 +4807,14 @@
       <c r="A297" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="B297" s="2" t="n">
-        <v>43179</v>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>05/04/2018</t>
+        </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>05,11,26,30,34,38</t>
+          <t>03,08,20,22,31,40</t>
         </is>
       </c>
     </row>
@@ -4234,12 +4822,14 @@
       <c r="A298" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="B298" s="2" t="n">
-        <v>43176</v>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>03/04/2018</t>
+        </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>08,09,12,23,24,31</t>
+          <t>07,19,27,29,36,38</t>
         </is>
       </c>
     </row>
@@ -4247,12 +4837,14 @@
       <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="B299" s="2" t="n">
-        <v>43174</v>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>27/03/2018</t>
+        </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>02,09,17,27,37,42</t>
+          <t>01,05,08,22,34,38</t>
         </is>
       </c>
     </row>
@@ -4260,12 +4852,14 @@
       <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="B300" s="2" t="n">
-        <v>43172</v>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>24/03/2018</t>
+        </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>02,03,28,32,36,41</t>
+          <t>04,08,17,21,31,32</t>
         </is>
       </c>
     </row>
@@ -4273,12 +4867,14 @@
       <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="B301" s="2" t="n">
-        <v>43376</v>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>22/03/2018</t>
+        </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>03,26,38,39,41,42</t>
+          <t>04,06,15,20,39,42</t>
         </is>
       </c>
     </row>
@@ -4286,12 +4882,14 @@
       <c r="A302" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B302" s="2" t="n">
-        <v>43315</v>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>20/03/2018</t>
+        </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>14,24,25,27,36,38</t>
+          <t>05,11,26,30,34,38</t>
         </is>
       </c>
     </row>
@@ -4299,12 +4897,14 @@
       <c r="A303" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="B303" s="2" t="n">
-        <v>43254</v>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>17/03/2018</t>
+        </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>04,05,23,30,37,39</t>
+          <t>08,09,12,23,24,31</t>
         </is>
       </c>
     </row>
@@ -4312,12 +4912,14 @@
       <c r="A304" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="B304" s="2" t="n">
-        <v>43162</v>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>15/03/2018</t>
+        </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>08,19,24,30,35,39</t>
+          <t>02,09,17,27,37,42</t>
         </is>
       </c>
     </row>
@@ -4325,12 +4927,14 @@
       <c r="A305" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="B305" s="2" t="n">
-        <v>43103</v>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>13/03/2018</t>
+        </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>07,14,25,34,40,42</t>
+          <t>02,03,28,32,36,41</t>
         </is>
       </c>
     </row>
@@ -4338,12 +4942,14 @@
       <c r="A306" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="B306" s="2" t="n">
-        <v>43158</v>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>10/03/2018</t>
+        </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>10,12,19,26,28,36</t>
+          <t>03,26,38,39,41,42</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4957,14 @@
       <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="B307" s="2" t="n">
-        <v>43155</v>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>08/03/2018</t>
+        </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>09,12,17,25,32,34</t>
+          <t>14,24,25,27,36,38</t>
         </is>
       </c>
     </row>
@@ -4364,12 +4972,14 @@
       <c r="A308" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="B308" s="2" t="n">
-        <v>43153</v>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>06/03/2018</t>
+        </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>18,25,27,30,35,41</t>
+          <t>04,05,23,30,37,39</t>
         </is>
       </c>
     </row>
@@ -4377,12 +4987,14 @@
       <c r="A309" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="B309" s="2" t="n">
-        <v>43151</v>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>03/03/2018</t>
+        </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>02,21,25,34,35,40</t>
+          <t>08,19,24,30,35,39</t>
         </is>
       </c>
     </row>
@@ -4390,12 +5002,14 @@
       <c r="A310" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="B310" s="2" t="n">
-        <v>43148</v>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>01/03/2018</t>
+        </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>05,19,22,33,40,41</t>
+          <t>07,14,25,34,40,42</t>
         </is>
       </c>
     </row>
@@ -4403,12 +5017,14 @@
       <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="B311" s="2" t="n">
-        <v>43146</v>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>27/02/2018</t>
+        </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>01,21,22,24,28,39</t>
+          <t>10,12,19,26,28,36</t>
         </is>
       </c>
     </row>
@@ -4416,12 +5032,14 @@
       <c r="A312" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="B312" s="2" t="n">
-        <v>43144</v>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>24/02/2018</t>
+        </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>07,19,21,22,31,35</t>
+          <t>09,12,17,25,32,34</t>
         </is>
       </c>
     </row>
@@ -4429,12 +5047,14 @@
       <c r="A313" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="B313" s="2" t="n">
-        <v>43375</v>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>22/02/2018</t>
+        </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>06,08,18,23,30,41</t>
+          <t>18,25,27,30,35,41</t>
         </is>
       </c>
     </row>
@@ -4442,12 +5062,14 @@
       <c r="A314" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="B314" s="2" t="n">
-        <v>43314</v>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>20/02/2018</t>
+        </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>07,08,11,19,30,32</t>
+          <t>02,21,25,34,35,40</t>
         </is>
       </c>
     </row>
@@ -4455,12 +5077,14 @@
       <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="B315" s="2" t="n">
-        <v>43253</v>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>17/02/2018</t>
+        </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>01,04,09,21,29,36</t>
+          <t>05,19,22,33,40,41</t>
         </is>
       </c>
     </row>
@@ -4468,12 +5092,14 @@
       <c r="A316" s="1" t="n">
         <v>314</v>
       </c>
-      <c r="B316" s="2" t="n">
-        <v>43161</v>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>15/02/2018</t>
+        </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>03,14,19,21,22,29</t>
+          <t>01,21,22,24,28,39</t>
         </is>
       </c>
     </row>
@@ -4481,12 +5107,14 @@
       <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="B317" s="2" t="n">
-        <v>43102</v>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>13/02/2018</t>
+        </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>06,13,14,18,30,34</t>
+          <t>07,19,21,22,31,35</t>
         </is>
       </c>
     </row>
@@ -4494,12 +5122,14 @@
       <c r="A318" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="B318" s="2" t="n">
-        <v>43130</v>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>10/02/2018</t>
+        </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>02,06,11,12,20,35</t>
+          <t>06,08,18,23,30,41</t>
         </is>
       </c>
     </row>
@@ -4507,12 +5137,14 @@
       <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="B319" s="2" t="n">
-        <v>43127</v>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>08/02/2018</t>
+        </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>04,06,07,12,24,30</t>
+          <t>07,08,11,19,30,32</t>
         </is>
       </c>
     </row>
@@ -4520,12 +5152,14 @@
       <c r="A320" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="B320" s="2" t="n">
-        <v>43125</v>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>06/02/2018</t>
+        </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>02,05,10,16,24,26</t>
+          <t>01,04,09,21,29,36</t>
         </is>
       </c>
     </row>
@@ -4533,12 +5167,14 @@
       <c r="A321" s="1" t="n">
         <v>319</v>
       </c>
-      <c r="B321" s="2" t="n">
-        <v>43123</v>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>03/02/2018</t>
+        </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>05,11,24,31,33,42</t>
+          <t>03,14,19,21,22,29</t>
         </is>
       </c>
     </row>
@@ -4546,12 +5182,14 @@
       <c r="A322" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="B322" s="2" t="n">
-        <v>43120</v>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>01/02/2018</t>
+        </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>06,16,25,29,30,38</t>
+          <t>06,13,14,18,30,34</t>
         </is>
       </c>
     </row>
@@ -4559,12 +5197,14 @@
       <c r="A323" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="B323" s="2" t="n">
-        <v>43118</v>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>30/01/2018</t>
+        </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>01,05,17,35,37,40</t>
+          <t>02,06,11,12,20,35</t>
         </is>
       </c>
     </row>
@@ -4572,12 +5212,14 @@
       <c r="A324" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="B324" s="2" t="n">
-        <v>43116</v>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>27/01/2018</t>
+        </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>04,07,08,12,32,38</t>
+          <t>04,06,07,12,24,30</t>
         </is>
       </c>
     </row>
@@ -4585,12 +5227,14 @@
       <c r="A325" s="1" t="n">
         <v>323</v>
       </c>
-      <c r="B325" s="2" t="n">
-        <v>43113</v>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>25/01/2018</t>
+        </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>02,08,12,25,31,32</t>
+          <t>02,05,10,16,24,26</t>
         </is>
       </c>
     </row>
@@ -4598,12 +5242,14 @@
       <c r="A326" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="B326" s="2" t="n">
-        <v>43405</v>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>23/01/2018</t>
+        </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>01,03,11,24,38,41</t>
+          <t>05,11,24,31,33,42</t>
         </is>
       </c>
     </row>
@@ -4611,12 +5257,14 @@
       <c r="A327" s="1" t="n">
         <v>325</v>
       </c>
-      <c r="B327" s="2" t="n">
-        <v>43344</v>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>20/01/2018</t>
+        </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>07,11,27,28,34,42</t>
+          <t>06,16,25,29,30,38</t>
         </is>
       </c>
     </row>
@@ -4624,12 +5272,14 @@
       <c r="A328" s="1" t="n">
         <v>326</v>
       </c>
-      <c r="B328" s="2" t="n">
-        <v>43252</v>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>18/01/2018</t>
+        </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>11,13,15,24,28,40</t>
+          <t>01,05,17,35,37,40</t>
         </is>
       </c>
     </row>
@@ -4637,12 +5287,14 @@
       <c r="A329" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="B329" s="2" t="n">
-        <v>43191</v>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>16/01/2018</t>
+        </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>05,11,16,19,26,30</t>
+          <t>04,07,08,12,32,38</t>
         </is>
       </c>
     </row>
@@ -4650,12 +5302,14 @@
       <c r="A330" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="B330" s="2" t="n">
-        <v>43132</v>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>13/01/2018</t>
+        </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>04,14,16,17,19,29</t>
+          <t>02,08,12,25,31,32</t>
         </is>
       </c>
     </row>
@@ -4663,12 +5317,14 @@
       <c r="A331" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="B331" s="2" t="n">
-        <v>43099</v>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>11/01/2018</t>
+        </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>05,10,11,28,38,41</t>
+          <t>01,03,11,24,38,41</t>
         </is>
       </c>
     </row>
@@ -4676,12 +5332,14 @@
       <c r="A332" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="B332" s="2" t="n">
-        <v>43097</v>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>09/01/2018</t>
+        </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>06,10,16,17,30,38</t>
+          <t>07,11,27,28,34,42</t>
         </is>
       </c>
     </row>
@@ -4689,12 +5347,14 @@
       <c r="A333" s="1" t="n">
         <v>331</v>
       </c>
-      <c r="B333" s="2" t="n">
-        <v>43095</v>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>06/01/2018</t>
+        </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>02,14,33,34,39,41</t>
+          <t>11,13,15,24,28,40</t>
         </is>
       </c>
     </row>
@@ -4702,12 +5362,14 @@
       <c r="A334" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="B334" s="2" t="n">
-        <v>43092</v>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>04/01/2018</t>
+        </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>16,18,29,31,39,41</t>
+          <t>05,11,16,19,26,30</t>
         </is>
       </c>
     </row>
@@ -4715,12 +5377,14 @@
       <c r="A335" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="B335" s="2" t="n">
-        <v>43090</v>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>02/01/2018</t>
+        </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>03,19,26,27,36,39</t>
+          <t>04,14,16,17,19,29</t>
         </is>
       </c>
     </row>
@@ -4728,12 +5392,14 @@
       <c r="A336" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="B336" s="2" t="n">
-        <v>43088</v>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>30/12/2017</t>
+        </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>02,04,17,18,28,34</t>
+          <t>05,10,11,28,38,41</t>
         </is>
       </c>
     </row>
@@ -4741,12 +5407,14 @@
       <c r="A337" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="B337" s="2" t="n">
-        <v>43085</v>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>28/12/2017</t>
+        </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>03,08,13,19,22,26</t>
+          <t>06,10,16,17,30,38</t>
         </is>
       </c>
     </row>
@@ -4754,12 +5422,14 @@
       <c r="A338" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="B338" s="2" t="n">
-        <v>43083</v>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>26/12/2017</t>
+        </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>01,05,14,16,23,28</t>
+          <t>02,14,33,34,39,41</t>
         </is>
       </c>
     </row>
@@ -4767,12 +5437,14 @@
       <c r="A339" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="B339" s="2" t="n">
-        <v>43081</v>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>23/12/2017</t>
+        </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>15,17,18,20,24,40</t>
+          <t>16,18,29,31,39,41</t>
         </is>
       </c>
     </row>
@@ -4780,12 +5452,14 @@
       <c r="A340" s="1" t="n">
         <v>338</v>
       </c>
-      <c r="B340" s="2" t="n">
-        <v>42990</v>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>21/12/2017</t>
+        </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>04,11,12,25,27,30</t>
+          <t>03,19,26,27,36,39</t>
         </is>
       </c>
     </row>
@@ -4793,12 +5467,14 @@
       <c r="A341" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="B341" s="2" t="n">
-        <v>42928</v>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>19/12/2017</t>
+        </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>09,10,21,24,27,37</t>
+          <t>02,04,17,18,28,34</t>
         </is>
       </c>
     </row>
@@ -4806,12 +5482,14 @@
       <c r="A342" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="B342" s="2" t="n">
-        <v>42867</v>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>16/12/2017</t>
+        </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>11,14,15,21,23,30</t>
+          <t>03,08,13,19,22,26</t>
         </is>
       </c>
     </row>
@@ -4819,12 +5497,14 @@
       <c r="A343" s="1" t="n">
         <v>341</v>
       </c>
-      <c r="B343" s="2" t="n">
-        <v>42778</v>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>14/12/2017</t>
+        </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>04,21,27,30,33,39</t>
+          <t>01,05,14,16,23,28</t>
         </is>
       </c>
     </row>
@@ -4832,12 +5512,14 @@
       <c r="A344" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="B344" s="2" t="n">
-        <v>43069</v>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>12/12/2017</t>
+        </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>03,09,26,27,31,33</t>
+          <t>15,17,18,20,24,40</t>
         </is>
       </c>
     </row>
@@ -4845,12 +5527,14 @@
       <c r="A345" s="1" t="n">
         <v>343</v>
       </c>
-      <c r="B345" s="2" t="n">
-        <v>43067</v>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>09/12/2017</t>
+        </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>01,07,16,17,28,39</t>
+          <t>04,11,12,25,27,30</t>
         </is>
       </c>
     </row>
@@ -4858,12 +5542,14 @@
       <c r="A346" s="1" t="n">
         <v>344</v>
       </c>
-      <c r="B346" s="2" t="n">
-        <v>43064</v>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>07/12/2017</t>
+        </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>01,07,11,22,29,35</t>
+          <t>09,10,21,24,27,37</t>
         </is>
       </c>
     </row>
@@ -4871,12 +5557,14 @@
       <c r="A347" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="B347" s="2" t="n">
-        <v>43062</v>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>05/12/2017</t>
+        </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>01,16,24,28,34,40</t>
+          <t>11,14,15,21,23,30</t>
         </is>
       </c>
     </row>
@@ -4884,12 +5572,14 @@
       <c r="A348" s="1" t="n">
         <v>346</v>
       </c>
-      <c r="B348" s="2" t="n">
-        <v>43060</v>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>02/12/2017</t>
+        </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>07,24,26,31,32,38</t>
+          <t>04,21,27,30,33,39</t>
         </is>
       </c>
     </row>
@@ -4897,12 +5587,14 @@
       <c r="A349" s="1" t="n">
         <v>347</v>
       </c>
-      <c r="B349" s="2" t="n">
-        <v>43057</v>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>30/11/2017</t>
+        </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>02,12,15,20,37,38</t>
+          <t>03,09,26,27,31,33</t>
         </is>
       </c>
     </row>
@@ -4910,12 +5602,14 @@
       <c r="A350" s="1" t="n">
         <v>348</v>
       </c>
-      <c r="B350" s="2" t="n">
-        <v>43055</v>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>28/11/2017</t>
+        </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>08,17,28,30,38,42</t>
+          <t>01,07,16,17,28,39</t>
         </is>
       </c>
     </row>
@@ -4923,12 +5617,14 @@
       <c r="A351" s="1" t="n">
         <v>349</v>
       </c>
-      <c r="B351" s="2" t="n">
-        <v>43053</v>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>25/11/2017</t>
+        </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>04,10,21,23,27,28</t>
+          <t>01,07,11,22,29,35</t>
         </is>
       </c>
     </row>
@@ -4936,12 +5632,14 @@
       <c r="A352" s="1" t="n">
         <v>350</v>
       </c>
-      <c r="B352" s="2" t="n">
-        <v>43050</v>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>23/11/2017</t>
+        </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>03,06,09,23,25,30</t>
+          <t>01,16,24,28,34,40</t>
         </is>
       </c>
     </row>
@@ -4949,12 +5647,14 @@
       <c r="A353" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="B353" s="2" t="n">
-        <v>42989</v>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>21/11/2017</t>
+        </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>06,07,12,17,27,37</t>
+          <t>07,24,26,31,32,38</t>
         </is>
       </c>
     </row>
@@ -4962,12 +5662,14 @@
       <c r="A354" s="1" t="n">
         <v>352</v>
       </c>
-      <c r="B354" s="2" t="n">
-        <v>42927</v>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>18/11/2017</t>
+        </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>09,15,30,33,34,36</t>
+          <t>02,12,15,20,37,38</t>
         </is>
       </c>
     </row>
@@ -4975,12 +5677,14 @@
       <c r="A355" s="1" t="n">
         <v>353</v>
       </c>
-      <c r="B355" s="2" t="n">
-        <v>42836</v>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>16/11/2017</t>
+        </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>08,10,19,25,26,42</t>
+          <t>08,17,28,30,38,42</t>
         </is>
       </c>
     </row>
@@ -4988,12 +5692,14 @@
       <c r="A356" s="1" t="n">
         <v>354</v>
       </c>
-      <c r="B356" s="2" t="n">
-        <v>42777</v>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>14/11/2017</t>
+        </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>03,11,18,19,31,42</t>
+          <t>04,10,21,23,27,28</t>
         </is>
       </c>
     </row>
@@ -5001,12 +5707,14 @@
       <c r="A357" s="1" t="n">
         <v>355</v>
       </c>
-      <c r="B357" s="2" t="n">
-        <v>43039</v>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>11/11/2017</t>
+        </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>08,14,15,20,25,42</t>
+          <t>03,06,09,23,25,30</t>
         </is>
       </c>
     </row>
@@ -5014,12 +5722,14 @@
       <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="B358" s="2" t="n">
-        <v>43036</v>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>09/11/2017</t>
+        </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>02,11,15,20,22,31</t>
+          <t>06,07,12,17,27,37</t>
         </is>
       </c>
     </row>
@@ -5027,12 +5737,14 @@
       <c r="A359" s="1" t="n">
         <v>357</v>
       </c>
-      <c r="B359" s="2" t="n">
-        <v>43034</v>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>07/11/2017</t>
+        </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>11,13,16,30,36,37</t>
+          <t>09,15,30,33,34,36</t>
         </is>
       </c>
     </row>
@@ -5040,12 +5752,14 @@
       <c r="A360" s="1" t="n">
         <v>358</v>
       </c>
-      <c r="B360" s="2" t="n">
-        <v>43032</v>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>04/11/2017</t>
+        </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>01,07,12,23,28,30</t>
+          <t>08,10,19,25,26,42</t>
         </is>
       </c>
     </row>
@@ -5053,12 +5767,14 @@
       <c r="A361" s="1" t="n">
         <v>359</v>
       </c>
-      <c r="B361" s="2" t="n">
-        <v>43029</v>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>02/11/2017</t>
+        </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>03,07,19,26,31,34</t>
+          <t>03,11,18,19,31,42</t>
         </is>
       </c>
     </row>
@@ -5066,12 +5782,14 @@
       <c r="A362" s="1" t="n">
         <v>360</v>
       </c>
-      <c r="B362" s="2" t="n">
-        <v>43027</v>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>31/10/2017</t>
+        </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>11,15,16,28,32,38</t>
+          <t>08,14,15,20,25,42</t>
         </is>
       </c>
     </row>
@@ -5079,12 +5797,14 @@
       <c r="A363" s="1" t="n">
         <v>361</v>
       </c>
-      <c r="B363" s="2" t="n">
-        <v>43025</v>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>28/10/2017</t>
+        </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>07,09,16,20,24,28</t>
+          <t>02,11,15,20,22,31</t>
         </is>
       </c>
     </row>
@@ -5092,12 +5812,14 @@
       <c r="A364" s="1" t="n">
         <v>362</v>
       </c>
-      <c r="B364" s="2" t="n">
-        <v>43022</v>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>26/10/2017</t>
+        </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>01,04,11,13,19,36</t>
+          <t>11,13,16,30,36,37</t>
         </is>
       </c>
     </row>
@@ -5105,12 +5827,14 @@
       <c r="A365" s="1" t="n">
         <v>363</v>
       </c>
-      <c r="B365" s="2" t="n">
-        <v>43079</v>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>24/10/2017</t>
+        </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>06,16,21,33,37,39</t>
+          <t>01,07,12,23,28,30</t>
         </is>
       </c>
     </row>
@@ -5118,12 +5842,14 @@
       <c r="A366" s="1" t="n">
         <v>364</v>
       </c>
-      <c r="B366" s="2" t="n">
-        <v>43018</v>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>21/10/2017</t>
+        </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>05,07,08,19,27,36</t>
+          <t>03,07,19,26,31,34</t>
         </is>
       </c>
     </row>
@@ -5131,12 +5857,14 @@
       <c r="A367" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="B367" s="2" t="n">
-        <v>42926</v>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>19/10/2017</t>
+        </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>02,09,21,23,30,40</t>
+          <t>11,15,16,28,32,38</t>
         </is>
       </c>
     </row>
@@ -5144,12 +5872,14 @@
       <c r="A368" s="1" t="n">
         <v>366</v>
       </c>
-      <c r="B368" s="2" t="n">
-        <v>42865</v>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>17/10/2017</t>
+        </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>03,07,09,11,12,21</t>
+          <t>07,09,16,20,24,28</t>
         </is>
       </c>
     </row>
@@ -5157,12 +5887,14 @@
       <c r="A369" s="1" t="n">
         <v>367</v>
       </c>
-      <c r="B369" s="2" t="n">
-        <v>42804</v>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>14/10/2017</t>
+        </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>01,07,12,17,28,31</t>
+          <t>01,04,11,13,19,36</t>
         </is>
       </c>
     </row>
@@ -5170,12 +5902,14 @@
       <c r="A370" s="1" t="n">
         <v>368</v>
       </c>
-      <c r="B370" s="2" t="n">
-        <v>43008</v>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>12/10/2017</t>
+        </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>08,09,12,27,36,39</t>
+          <t>06,16,21,33,37,39</t>
         </is>
       </c>
     </row>
@@ -5183,12 +5917,14 @@
       <c r="A371" s="1" t="n">
         <v>369</v>
       </c>
-      <c r="B371" s="2" t="n">
-        <v>43006</v>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>10/10/2017</t>
+        </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>02,08,18,20,25,30</t>
+          <t>05,07,08,19,27,36</t>
         </is>
       </c>
     </row>
@@ -5196,12 +5932,14 @@
       <c r="A372" s="1" t="n">
         <v>370</v>
       </c>
-      <c r="B372" s="2" t="n">
-        <v>43004</v>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>07/10/2017</t>
+        </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>06,07,19,23,24,41</t>
+          <t>02,09,21,23,30,40</t>
         </is>
       </c>
     </row>
@@ -5209,12 +5947,14 @@
       <c r="A373" s="1" t="n">
         <v>371</v>
       </c>
-      <c r="B373" s="2" t="n">
-        <v>43001</v>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>05/10/2017</t>
+        </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>11,13,19,21,22,31</t>
+          <t>03,07,09,11,12,21</t>
         </is>
       </c>
     </row>
@@ -5222,12 +5962,14 @@
       <c r="A374" s="1" t="n">
         <v>372</v>
       </c>
-      <c r="B374" s="2" t="n">
-        <v>42999</v>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>03/10/2017</t>
+        </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>04,05,07,16,23,39</t>
+          <t>01,07,12,17,28,31</t>
         </is>
       </c>
     </row>
@@ -5235,12 +5977,14 @@
       <c r="A375" s="1" t="n">
         <v>373</v>
       </c>
-      <c r="B375" s="2" t="n">
-        <v>42997</v>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>30/09/2017</t>
+        </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>06,24,25,27,35,42</t>
+          <t>08,09,12,27,36,39</t>
         </is>
       </c>
     </row>
@@ -5248,12 +5992,14 @@
       <c r="A376" s="1" t="n">
         <v>374</v>
       </c>
-      <c r="B376" s="2" t="n">
-        <v>42994</v>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>28/09/2017</t>
+        </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>01,05,22,27,34,38</t>
+          <t>02,08,18,20,25,30</t>
         </is>
       </c>
     </row>
@@ -5261,12 +6007,14 @@
       <c r="A377" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="B377" s="2" t="n">
-        <v>42992</v>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>26/09/2017</t>
+        </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>11,12,16,20,31,38</t>
+          <t>06,07,19,23,24,41</t>
         </is>
       </c>
     </row>
@@ -5274,12 +6022,14 @@
       <c r="A378" s="1" t="n">
         <v>376</v>
       </c>
-      <c r="B378" s="2" t="n">
-        <v>43078</v>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>23/09/2017</t>
+        </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>01,12,19,24,26,38</t>
+          <t>11,13,19,21,22,31</t>
         </is>
       </c>
     </row>
@@ -5287,12 +6037,14 @@
       <c r="A379" s="1" t="n">
         <v>377</v>
       </c>
-      <c r="B379" s="2" t="n">
-        <v>42987</v>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>21/09/2017</t>
+        </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>10,11,21,29,37,41</t>
+          <t>04,05,07,16,23,39</t>
         </is>
       </c>
     </row>
@@ -5300,12 +6052,14 @@
       <c r="A380" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="B380" s="2" t="n">
-        <v>42925</v>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>19/09/2017</t>
+        </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>26,27,28,30,41,42</t>
+          <t>06,24,25,27,35,42</t>
         </is>
       </c>
     </row>
@@ -5313,12 +6067,14 @@
       <c r="A381" s="1" t="n">
         <v>379</v>
       </c>
-      <c r="B381" s="2" t="n">
-        <v>42864</v>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>16/09/2017</t>
+        </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>05,06,12,29,39,42</t>
+          <t>01,05,22,27,34,38</t>
         </is>
       </c>
     </row>
@@ -5326,12 +6082,14 @@
       <c r="A382" s="1" t="n">
         <v>380</v>
       </c>
-      <c r="B382" s="2" t="n">
-        <v>42775</v>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>14/09/2017</t>
+        </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>03,04,28,32,36,41</t>
+          <t>11,12,16,20,31,38</t>
         </is>
       </c>
     </row>
@@ -5339,12 +6097,14 @@
       <c r="A383" s="1" t="n">
         <v>381</v>
       </c>
-      <c r="B383" s="2" t="n">
-        <v>42978</v>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>12/09/2017</t>
+        </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>02,04,14,17,25,27</t>
+          <t>01,12,19,24,26,38</t>
         </is>
       </c>
     </row>
@@ -5352,12 +6112,14 @@
       <c r="A384" s="1" t="n">
         <v>382</v>
       </c>
-      <c r="B384" s="2" t="n">
-        <v>42976</v>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>09/09/2017</t>
+        </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>01,05,21,22,28,41</t>
+          <t>10,11,21,29,37,41</t>
         </is>
       </c>
     </row>
@@ -5365,12 +6127,14 @@
       <c r="A385" s="1" t="n">
         <v>383</v>
       </c>
-      <c r="B385" s="2" t="n">
-        <v>42973</v>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>07/09/2017</t>
+        </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>22,24,36,37,38,41</t>
+          <t>26,27,28,30,41,42</t>
         </is>
       </c>
     </row>
@@ -5378,12 +6142,14 @@
       <c r="A386" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="B386" s="2" t="n">
-        <v>42971</v>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>05/09/2017</t>
+        </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>13,25,32,33,34,36</t>
+          <t>05,06,12,29,39,42</t>
         </is>
       </c>
     </row>
@@ -5391,12 +6157,14 @@
       <c r="A387" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="B387" s="2" t="n">
-        <v>42969</v>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>02/09/2017</t>
+        </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>02,17,23,29,30,42</t>
+          <t>03,04,28,32,36,41</t>
         </is>
       </c>
     </row>
@@ -5404,12 +6172,14 @@
       <c r="A388" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="B388" s="2" t="n">
-        <v>42966</v>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>31/08/2017</t>
+        </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>06,11,16,29,35,37</t>
+          <t>02,04,14,17,25,27</t>
         </is>
       </c>
     </row>
@@ -5417,12 +6187,14 @@
       <c r="A389" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B389" s="2" t="n">
-        <v>42964</v>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>29/08/2017</t>
+        </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>09,11,13,32,33,37</t>
+          <t>01,05,21,22,28,41</t>
         </is>
       </c>
     </row>
@@ -5430,12 +6202,14 @@
       <c r="A390" s="1" t="n">
         <v>388</v>
       </c>
-      <c r="B390" s="2" t="n">
-        <v>42962</v>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>26/08/2017</t>
+        </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>08,10,15,30,35,38</t>
+          <t>22,24,36,37,38,41</t>
         </is>
       </c>
     </row>
@@ -5443,12 +6217,14 @@
       <c r="A391" s="1" t="n">
         <v>389</v>
       </c>
-      <c r="B391" s="2" t="n">
-        <v>43077</v>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>24/08/2017</t>
+        </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>04,14,17,18,30,33</t>
+          <t>13,25,32,33,34,36</t>
         </is>
       </c>
     </row>
@@ -5456,12 +6232,14 @@
       <c r="A392" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="B392" s="2" t="n">
-        <v>43016</v>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>22/08/2017</t>
+        </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>08,12,18,28,29,40</t>
+          <t>02,17,23,29,30,42</t>
         </is>
       </c>
     </row>
@@ -5469,12 +6247,14 @@
       <c r="A393" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="B393" s="2" t="n">
-        <v>42955</v>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>19/08/2017</t>
+        </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>01,07,19,25,30,31</t>
+          <t>06,11,16,29,35,37</t>
         </is>
       </c>
     </row>
@@ -5482,12 +6262,14 @@
       <c r="A394" s="1" t="n">
         <v>392</v>
       </c>
-      <c r="B394" s="2" t="n">
-        <v>42863</v>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>17/08/2017</t>
+        </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>12,19,24,35,38,42</t>
+          <t>09,11,13,32,33,37</t>
         </is>
       </c>
     </row>
@@ -5495,12 +6277,14 @@
       <c r="A395" s="1" t="n">
         <v>393</v>
       </c>
-      <c r="B395" s="2" t="n">
-        <v>42802</v>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>15/08/2017</t>
+        </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>10,20,22,24,30,42</t>
+          <t>08,10,15,30,35,38</t>
         </is>
       </c>
     </row>
@@ -5508,12 +6292,14 @@
       <c r="A396" s="1" t="n">
         <v>394</v>
       </c>
-      <c r="B396" s="2" t="n">
-        <v>42743</v>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>12/08/2017</t>
+        </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>07,09,10,29,35,42</t>
+          <t>04,14,17,18,30,33</t>
         </is>
       </c>
     </row>
@@ -5521,12 +6307,14 @@
       <c r="A397" s="1" t="n">
         <v>395</v>
       </c>
-      <c r="B397" s="2" t="n">
-        <v>42945</v>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>10/08/2017</t>
+        </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>02,05,10,13,26,42</t>
+          <t>08,12,18,28,29,40</t>
         </is>
       </c>
     </row>
@@ -5534,12 +6322,14 @@
       <c r="A398" s="1" t="n">
         <v>396</v>
       </c>
-      <c r="B398" s="2" t="n">
-        <v>42943</v>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>08/08/2017</t>
+        </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>03,15,23,25,34,39</t>
+          <t>01,07,19,25,30,31</t>
         </is>
       </c>
     </row>
@@ -5547,12 +6337,14 @@
       <c r="A399" s="1" t="n">
         <v>397</v>
       </c>
-      <c r="B399" s="2" t="n">
-        <v>42941</v>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>05/08/2017</t>
+        </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>06,25,28,31,33,38</t>
+          <t>12,19,24,35,38,42</t>
         </is>
       </c>
     </row>
@@ -5560,12 +6352,14 @@
       <c r="A400" s="1" t="n">
         <v>398</v>
       </c>
-      <c r="B400" s="2" t="n">
-        <v>42938</v>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>03/08/2017</t>
+        </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>03,14,17,21,29,37</t>
+          <t>10,20,22,24,30,42</t>
         </is>
       </c>
     </row>
@@ -5573,12 +6367,14 @@
       <c r="A401" s="1" t="n">
         <v>399</v>
       </c>
-      <c r="B401" s="2" t="n">
-        <v>42936</v>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>01/08/2017</t>
+        </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>02,04,09,10,24,29</t>
+          <t>07,09,10,29,35,42</t>
         </is>
       </c>
     </row>
@@ -5586,12 +6382,14 @@
       <c r="A402" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="B402" s="2" t="n">
-        <v>42934</v>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>29/07/2017</t>
+        </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>04,05,13,27,31,36</t>
+          <t>02,05,10,13,26,42</t>
         </is>
       </c>
     </row>
@@ -5599,12 +6397,14 @@
       <c r="A403" s="1" t="n">
         <v>401</v>
       </c>
-      <c r="B403" s="2" t="n">
-        <v>42931</v>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>27/07/2017</t>
+        </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>01,12,18,19,28,42</t>
+          <t>03,15,23,25,34,39</t>
         </is>
       </c>
     </row>
@@ -5612,12 +6412,14 @@
       <c r="A404" s="1" t="n">
         <v>402</v>
       </c>
-      <c r="B404" s="2" t="n">
-        <v>42929</v>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>25/07/2017</t>
+        </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>11,14,17,28,34,36</t>
+          <t>06,25,28,31,33,38</t>
         </is>
       </c>
     </row>
@@ -5625,12 +6427,14 @@
       <c r="A405" s="1" t="n">
         <v>403</v>
       </c>
-      <c r="B405" s="2" t="n">
-        <v>43046</v>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>22/07/2017</t>
+        </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>01,07,08,18,23,31</t>
+          <t>03,14,17,21,29,37</t>
         </is>
       </c>
     </row>
@@ -5638,12 +6442,14 @@
       <c r="A406" s="1" t="n">
         <v>404</v>
       </c>
-      <c r="B406" s="2" t="n">
-        <v>42954</v>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>20/07/2017</t>
+        </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>04,07,10,33,37,40</t>
+          <t>02,04,09,10,24,29</t>
         </is>
       </c>
     </row>
@@ -5651,12 +6457,14 @@
       <c r="A407" s="1" t="n">
         <v>405</v>
       </c>
-      <c r="B407" s="2" t="n">
-        <v>42893</v>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>18/07/2017</t>
+        </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>01,04,05,27,36,41</t>
+          <t>04,05,13,27,31,36</t>
         </is>
       </c>
     </row>
@@ -5664,12 +6472,14 @@
       <c r="A408" s="1" t="n">
         <v>406</v>
       </c>
-      <c r="B408" s="2" t="n">
-        <v>42832</v>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>15/07/2017</t>
+        </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>05,10,29,32,34,36</t>
+          <t>01,12,18,19,28,42</t>
         </is>
       </c>
     </row>
@@ -5677,12 +6487,14 @@
       <c r="A409" s="1" t="n">
         <v>407</v>
       </c>
-      <c r="B409" s="2" t="n">
-        <v>42742</v>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>13/07/2017</t>
+        </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>11,21,31,32,40,41</t>
+          <t>11,14,17,28,34,36</t>
         </is>
       </c>
     </row>
@@ -5690,12 +6502,14 @@
       <c r="A410" s="1" t="n">
         <v>408</v>
       </c>
-      <c r="B410" s="2" t="n">
-        <v>42915</v>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>11/07/2017</t>
+        </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>04,08,14,21,38,40</t>
+          <t>01,07,08,18,23,31</t>
         </is>
       </c>
     </row>
@@ -5703,12 +6517,14 @@
       <c r="A411" s="1" t="n">
         <v>409</v>
       </c>
-      <c r="B411" s="2" t="n">
-        <v>42913</v>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>08/07/2017</t>
+        </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>06,10,20,30,34,35</t>
+          <t>04,07,10,33,37,40</t>
         </is>
       </c>
     </row>
@@ -5716,12 +6532,14 @@
       <c r="A412" s="1" t="n">
         <v>410</v>
       </c>
-      <c r="B412" s="2" t="n">
-        <v>42910</v>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>06/07/2017</t>
+        </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>02,07,13,21,40,41</t>
+          <t>01,04,05,27,36,41</t>
         </is>
       </c>
     </row>
@@ -5729,12 +6547,14 @@
       <c r="A413" s="1" t="n">
         <v>411</v>
       </c>
-      <c r="B413" s="2" t="n">
-        <v>42908</v>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>04/07/2017</t>
+        </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>06,12,13,16,21,27</t>
+          <t>05,10,29,32,34,36</t>
         </is>
       </c>
     </row>
@@ -5742,12 +6562,14 @@
       <c r="A414" s="1" t="n">
         <v>412</v>
       </c>
-      <c r="B414" s="2" t="n">
-        <v>42906</v>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>01/07/2017</t>
+        </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>11,12,13,14,24,25</t>
+          <t>11,21,31,32,40,41</t>
         </is>
       </c>
     </row>
@@ -5755,12 +6577,14 @@
       <c r="A415" s="1" t="n">
         <v>413</v>
       </c>
-      <c r="B415" s="2" t="n">
-        <v>42903</v>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>29/06/2017</t>
+        </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>16,18,29,32,33,39</t>
+          <t>04,08,14,21,38,40</t>
         </is>
       </c>
     </row>
@@ -5768,12 +6592,14 @@
       <c r="A416" s="1" t="n">
         <v>414</v>
       </c>
-      <c r="B416" s="2" t="n">
-        <v>42901</v>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>27/06/2017</t>
+        </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>02,07,18,20,37,40</t>
+          <t>06,10,20,30,34,35</t>
         </is>
       </c>
     </row>
@@ -5781,12 +6607,14 @@
       <c r="A417" s="1" t="n">
         <v>415</v>
       </c>
-      <c r="B417" s="2" t="n">
-        <v>42899</v>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>24/06/2017</t>
+        </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>05,06,08,13,25,36</t>
+          <t>02,07,13,21,40,41</t>
         </is>
       </c>
     </row>
@@ -5794,12 +6622,14 @@
       <c r="A418" s="1" t="n">
         <v>416</v>
       </c>
-      <c r="B418" s="2" t="n">
-        <v>43014</v>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>22/06/2017</t>
+        </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>02,06,13,19,23,42</t>
+          <t>06,12,13,16,21,27</t>
         </is>
       </c>
     </row>
@@ -5807,12 +6637,14 @@
       <c r="A419" s="1" t="n">
         <v>417</v>
       </c>
-      <c r="B419" s="2" t="n">
-        <v>42953</v>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>20/06/2017</t>
+        </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>03,09,27,35,40,42</t>
+          <t>11,12,13,14,24,25</t>
         </is>
       </c>
     </row>
@@ -5820,12 +6652,14 @@
       <c r="A420" s="1" t="n">
         <v>418</v>
       </c>
-      <c r="B420" s="2" t="n">
-        <v>42892</v>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>17/06/2017</t>
+        </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>01,05,13,25,30,37</t>
+          <t>16,18,29,32,33,39</t>
         </is>
       </c>
     </row>
@@ -5833,12 +6667,14 @@
       <c r="A421" s="1" t="n">
         <v>419</v>
       </c>
-      <c r="B421" s="2" t="n">
-        <v>42800</v>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>15/06/2017</t>
+        </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>20,22,24,28,31,40</t>
+          <t>02,07,18,20,37,40</t>
         </is>
       </c>
     </row>
